--- a/FillData.xlsx
+++ b/FillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GiuliaFaletti/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB24106A-EADE-544C-A148-245BFFB74625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E030D25-E62B-4B40-B8E9-51E9B4ED9D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B2C73B6C-267B-644D-A440-B3FA083594A0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{B2C73B6C-267B-644D-A440-B3FA083594A0}"/>
   </bookViews>
   <sheets>
     <sheet name="foglio" sheetId="1" r:id="rId1"/>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9917E895-DFBB-704E-AD24-D79E9DFD8B04}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E20" activeCellId="2" sqref="J20 F20 E20"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="T73" sqref="T73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,10 +506,10 @@
         <v>11.7</v>
       </c>
       <c r="E2">
-        <v>8.0408333333333335</v>
+        <v>9.1216666666666661</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>14.3</v>
       </c>
       <c r="H2">
         <v>5017</v>
@@ -518,7 +518,7 @@
         <v>5837</v>
       </c>
       <c r="J2">
-        <v>6628</v>
+        <v>6638</v>
       </c>
       <c r="L2">
         <v>1.1000000000000001</v>
@@ -545,10 +545,10 @@
         <v>7.22</v>
       </c>
       <c r="E3">
-        <v>7.3791666666666664</v>
+        <v>5.2511111111111113</v>
       </c>
       <c r="F3">
-        <v>0.77500000000000002</v>
+        <v>9.15</v>
       </c>
       <c r="H3">
         <v>5020</v>
@@ -557,7 +557,7 @@
         <v>5840</v>
       </c>
       <c r="J3">
-        <v>6633</v>
+        <v>6640</v>
       </c>
       <c r="L3">
         <v>1.3</v>
@@ -584,10 +584,10 @@
         <v>21.3</v>
       </c>
       <c r="E4">
-        <v>9.1216666666666661</v>
+        <v>6.8163888888888886</v>
       </c>
       <c r="F4">
-        <v>14.3</v>
+        <v>13.1</v>
       </c>
       <c r="H4">
         <v>5043</v>
@@ -596,7 +596,7 @@
         <v>5849</v>
       </c>
       <c r="J4">
-        <v>6638</v>
+        <v>6648</v>
       </c>
       <c r="L4" s="2">
         <v>1.4</v>
@@ -623,10 +623,10 @@
         <v>12.1</v>
       </c>
       <c r="E5">
-        <v>5.2511111111111113</v>
+        <v>8.0824999999999996</v>
       </c>
       <c r="F5">
-        <v>9.15</v>
+        <v>7.34</v>
       </c>
       <c r="H5">
         <v>5045</v>
@@ -635,7 +635,7 @@
         <v>5856</v>
       </c>
       <c r="J5">
-        <v>6640</v>
+        <v>6654</v>
       </c>
       <c r="L5">
         <v>1.4</v>
@@ -662,10 +662,10 @@
         <v>16.5</v>
       </c>
       <c r="E6">
-        <v>6.8163888888888886</v>
+        <v>18.892777777777777</v>
       </c>
       <c r="F6">
-        <v>13.1</v>
+        <v>6.26</v>
       </c>
       <c r="H6">
         <v>5069</v>
@@ -674,7 +674,7 @@
         <v>5872</v>
       </c>
       <c r="J6">
-        <v>6648</v>
+        <v>6659</v>
       </c>
       <c r="L6" s="2">
         <v>1.6</v>
@@ -701,10 +701,10 @@
         <v>10.234722222222222</v>
       </c>
       <c r="E7">
-        <v>8.0824999999999996</v>
+        <v>14.971944444444444</v>
       </c>
       <c r="F7">
-        <v>7.34</v>
+        <v>12.5</v>
       </c>
       <c r="H7">
         <v>5073</v>
@@ -713,7 +713,7 @@
         <v>5950</v>
       </c>
       <c r="J7">
-        <v>6654</v>
+        <v>6662</v>
       </c>
       <c r="L7">
         <v>1.6</v>
@@ -740,10 +740,10 @@
         <v>13.313055555555556</v>
       </c>
       <c r="E8">
-        <v>18.892777777777777</v>
+        <v>5.8988888888888891</v>
       </c>
       <c r="F8">
-        <v>6.26</v>
+        <v>12.7</v>
       </c>
       <c r="H8">
         <v>5076</v>
@@ -752,7 +752,7 @@
         <v>5979</v>
       </c>
       <c r="J8">
-        <v>6659</v>
+        <v>6666</v>
       </c>
       <c r="L8">
         <v>1.7</v>
@@ -779,10 +779,10 @@
         <v>3.4</v>
       </c>
       <c r="E9">
-        <v>14.971944444444444</v>
+        <v>4.9044444444444446</v>
       </c>
       <c r="F9">
-        <v>12.5</v>
+        <v>13.9</v>
       </c>
       <c r="H9">
         <v>5078</v>
@@ -791,7 +791,7 @@
         <v>6019</v>
       </c>
       <c r="J9">
-        <v>6662</v>
+        <v>6674</v>
       </c>
       <c r="L9">
         <v>2.4</v>
@@ -818,10 +818,10 @@
         <v>16.07</v>
       </c>
       <c r="E10">
-        <v>5.8988888888888891</v>
+        <v>1.9924999999999999</v>
       </c>
       <c r="F10">
-        <v>12.7</v>
+        <v>13.7</v>
       </c>
       <c r="H10">
         <v>5080</v>
@@ -830,7 +830,7 @@
         <v>6024</v>
       </c>
       <c r="J10">
-        <v>6666</v>
+        <v>6675</v>
       </c>
       <c r="L10" s="2">
         <v>2.6</v>
@@ -857,10 +857,10 @@
         <v>15.616944444444444</v>
       </c>
       <c r="E11">
-        <v>4.9044444444444446</v>
+        <v>3.3802777777777777</v>
       </c>
       <c r="F11">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="H11">
         <v>5085</v>
@@ -869,7 +869,7 @@
         <v>6026</v>
       </c>
       <c r="J11">
-        <v>6674</v>
+        <v>6677</v>
       </c>
       <c r="L11">
         <v>3.1</v>
@@ -896,10 +896,10 @@
         <v>14.446388888888889</v>
       </c>
       <c r="E12">
-        <v>1.9924999999999999</v>
+        <v>4.4074999999999998</v>
       </c>
       <c r="F12">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <v>5093</v>
@@ -908,7 +908,7 @@
         <v>6031</v>
       </c>
       <c r="J12">
-        <v>6675</v>
+        <v>6681</v>
       </c>
       <c r="L12">
         <v>3.1</v>
@@ -935,10 +935,10 @@
         <v>14.093888888888889</v>
       </c>
       <c r="E13">
-        <v>3.3802777777777777</v>
+        <v>16.231944444444444</v>
       </c>
       <c r="F13">
-        <v>13.5</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="H13">
         <v>5095</v>
@@ -947,7 +947,7 @@
         <v>6046</v>
       </c>
       <c r="J13">
-        <v>6677</v>
+        <v>6688</v>
       </c>
       <c r="L13" s="2">
         <v>3.2</v>
@@ -974,10 +974,10 @@
         <v>14.579444444444444</v>
       </c>
       <c r="E14">
-        <v>4.4074999999999998</v>
+        <v>4.046388888888889</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>8.82</v>
       </c>
       <c r="H14">
         <v>5096</v>
@@ -986,7 +986,7 @@
         <v>6050</v>
       </c>
       <c r="J14">
-        <v>6681</v>
+        <v>6690</v>
       </c>
       <c r="L14">
         <v>3.6</v>
@@ -1013,10 +1013,10 @@
         <v>13.599722222222223</v>
       </c>
       <c r="E15">
-        <v>16.231944444444444</v>
+        <v>2.2533333333333334</v>
       </c>
       <c r="F15">
-        <v>4.6399999999999997</v>
+        <v>9.84</v>
       </c>
       <c r="H15">
         <v>5097</v>
@@ -1025,7 +1025,7 @@
         <v>6052</v>
       </c>
       <c r="J15">
-        <v>6688</v>
+        <v>6693</v>
       </c>
       <c r="L15">
         <v>4.2</v>
@@ -1053,10 +1053,10 @@
         <v>16.089166666666667</v>
       </c>
       <c r="E16">
-        <v>4.046388888888889</v>
+        <v>2.6902777777777778</v>
       </c>
       <c r="F16">
-        <v>8.82</v>
+        <v>9.51</v>
       </c>
       <c r="H16">
         <v>5102</v>
@@ -1065,7 +1065,7 @@
         <v>6055</v>
       </c>
       <c r="J16">
-        <v>6690</v>
+        <v>6694</v>
       </c>
       <c r="L16">
         <v>4.5</v>
@@ -1093,10 +1093,10 @@
         <v>14.330833333333333</v>
       </c>
       <c r="E17">
-        <v>2.2533333333333334</v>
+        <v>7.0736111111111111</v>
       </c>
       <c r="F17">
-        <v>9.84</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="H17">
         <v>5105</v>
@@ -1105,7 +1105,7 @@
         <v>6060</v>
       </c>
       <c r="J17">
-        <v>6693</v>
+        <v>6696</v>
       </c>
       <c r="L17">
         <v>4.7</v>
@@ -1133,10 +1133,10 @@
         <v>9.4088888888888889</v>
       </c>
       <c r="E18">
-        <v>2.6902777777777778</v>
+        <v>2.7425000000000002</v>
       </c>
       <c r="F18">
-        <v>9.51</v>
+        <v>12.5</v>
       </c>
       <c r="H18">
         <v>5106</v>
@@ -1145,7 +1145,7 @@
         <v>6061</v>
       </c>
       <c r="J18">
-        <v>6694</v>
+        <v>6700</v>
       </c>
       <c r="L18">
         <v>4.9000000000000004</v>
@@ -1173,10 +1173,10 @@
         <v>6.0347222222222223</v>
       </c>
       <c r="E19">
-        <v>7.0736111111111111</v>
+        <v>7.5858333333333334</v>
       </c>
       <c r="F19">
-        <v>8.6199999999999992</v>
+        <v>3.59</v>
       </c>
       <c r="H19">
         <v>5109</v>
@@ -1185,7 +1185,7 @@
         <v>6082</v>
       </c>
       <c r="J19">
-        <v>6696</v>
+        <v>6706</v>
       </c>
       <c r="L19">
         <v>5.3</v>
@@ -1213,10 +1213,10 @@
         <v>6.0130555555555558</v>
       </c>
       <c r="E20">
-        <v>2.7425000000000002</v>
+        <v>5.2761111111111108</v>
       </c>
       <c r="F20">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>5111</v>
@@ -1225,7 +1225,7 @@
         <v>6084</v>
       </c>
       <c r="J20">
-        <v>6700</v>
+        <v>6711</v>
       </c>
       <c r="L20">
         <v>5.6</v>
@@ -1253,10 +1253,10 @@
         <v>6.6469444444444443</v>
       </c>
       <c r="E21">
-        <v>7.5858333333333334</v>
+        <v>2.5511111111111111</v>
       </c>
       <c r="F21">
-        <v>3.59</v>
+        <v>10.4</v>
       </c>
       <c r="H21">
         <v>5112</v>
@@ -1265,7 +1265,7 @@
         <v>6089</v>
       </c>
       <c r="J21">
-        <v>6706</v>
+        <v>6712</v>
       </c>
       <c r="L21">
         <v>5.7</v>
@@ -1293,10 +1293,10 @@
         <v>6.26</v>
       </c>
       <c r="E22">
-        <v>5.2761111111111108</v>
+        <v>2.6875</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22">
         <v>5116</v>
@@ -1305,7 +1305,7 @@
         <v>6091</v>
       </c>
       <c r="J22">
-        <v>6711</v>
+        <v>6714</v>
       </c>
       <c r="L22" s="2">
         <v>6</v>
@@ -1333,10 +1333,10 @@
         <v>12</v>
       </c>
       <c r="E23">
-        <v>2.5511111111111111</v>
+        <v>19.920555555555556</v>
       </c>
       <c r="F23">
-        <v>10.4</v>
+        <v>11.7</v>
       </c>
       <c r="H23">
         <v>5117</v>
@@ -1345,7 +1345,7 @@
         <v>6097</v>
       </c>
       <c r="J23">
-        <v>6712</v>
+        <v>6729</v>
       </c>
       <c r="L23" s="2">
         <v>6.2</v>
@@ -1373,10 +1373,10 @@
         <v>9.1402777777777775</v>
       </c>
       <c r="E24">
-        <v>2.6875</v>
+        <v>2.3208333333333333</v>
       </c>
       <c r="F24">
-        <v>14</v>
+        <v>12.1</v>
       </c>
       <c r="H24">
         <v>5163</v>
@@ -1385,7 +1385,7 @@
         <v>6104</v>
       </c>
       <c r="J24">
-        <v>6714</v>
+        <v>6738</v>
       </c>
       <c r="L24">
         <v>6.3</v>
@@ -1413,10 +1413,10 @@
         <v>12.685</v>
       </c>
       <c r="E25">
-        <v>19.920555555555556</v>
+        <v>2.6166666666666667</v>
       </c>
       <c r="F25">
-        <v>11.7</v>
+        <v>8.98</v>
       </c>
       <c r="H25">
         <v>5173</v>
@@ -1425,7 +1425,7 @@
         <v>6106</v>
       </c>
       <c r="J25">
-        <v>6729</v>
+        <v>6741</v>
       </c>
       <c r="L25">
         <v>6.6</v>
@@ -1453,10 +1453,10 @@
         <v>12.032500000000001</v>
       </c>
       <c r="E26">
-        <v>2.3208333333333333</v>
+        <v>10.922777777777778</v>
       </c>
       <c r="F26">
-        <v>12.1</v>
+        <v>3.06</v>
       </c>
       <c r="H26">
         <v>5181</v>
@@ -1465,7 +1465,7 @@
         <v>6110</v>
       </c>
       <c r="J26">
-        <v>6738</v>
+        <v>6747</v>
       </c>
       <c r="L26">
         <v>6.7</v>
@@ -1493,10 +1493,10 @@
         <v>5.7672222222222222</v>
       </c>
       <c r="E27">
-        <v>2.6166666666666667</v>
+        <v>6.6349999999999998</v>
       </c>
       <c r="F27">
-        <v>8.98</v>
+        <v>13.7</v>
       </c>
       <c r="H27">
         <v>5199</v>
@@ -1505,7 +1505,7 @@
         <v>6116</v>
       </c>
       <c r="J27">
-        <v>6741</v>
+        <v>6749</v>
       </c>
       <c r="L27">
         <v>6.7</v>
@@ -1533,10 +1533,10 @@
         <v>13.499166666666667</v>
       </c>
       <c r="E28">
-        <v>10.922777777777778</v>
+        <v>3.1488888888888891</v>
       </c>
       <c r="F28">
-        <v>3.06</v>
+        <v>12.8</v>
       </c>
       <c r="H28">
         <v>5205</v>
@@ -1545,7 +1545,7 @@
         <v>6140</v>
       </c>
       <c r="J28">
-        <v>6747</v>
+        <v>6751</v>
       </c>
       <c r="L28" s="2">
         <v>7</v>
@@ -1573,10 +1573,10 @@
         <v>14.2</v>
       </c>
       <c r="E29">
-        <v>6.6349999999999998</v>
+        <v>2.2805555555555554</v>
       </c>
       <c r="F29">
-        <v>13.7</v>
+        <v>4.22</v>
       </c>
       <c r="H29">
         <v>5253</v>
@@ -1585,7 +1585,7 @@
         <v>6142</v>
       </c>
       <c r="J29">
-        <v>6749</v>
+        <v>6752</v>
       </c>
       <c r="L29">
         <v>7</v>
@@ -1613,7 +1613,7 @@
         <v>13.608611111111111</v>
       </c>
       <c r="E30">
-        <v>3.1488888888888891</v>
+        <v>6.6222222222222218</v>
       </c>
       <c r="F30">
         <v>12.8</v>
@@ -1625,7 +1625,7 @@
         <v>6143</v>
       </c>
       <c r="J30">
-        <v>6751</v>
+        <v>6759</v>
       </c>
       <c r="L30" s="2">
         <v>7.5</v>
@@ -1653,10 +1653,10 @@
         <v>5.9883333333333333</v>
       </c>
       <c r="E31">
-        <v>2.2805555555555554</v>
+        <v>6.6427777777777779</v>
       </c>
       <c r="F31">
-        <v>4.22</v>
+        <v>10.7</v>
       </c>
       <c r="H31">
         <v>5258</v>
@@ -1665,7 +1665,7 @@
         <v>6152</v>
       </c>
       <c r="J31">
-        <v>6752</v>
+        <v>6761</v>
       </c>
       <c r="L31" s="2">
         <v>7.7</v>
@@ -1693,10 +1693,10 @@
         <v>8.6080555555555556</v>
       </c>
       <c r="E32">
-        <v>6.6222222222222218</v>
+        <v>11.651388888888889</v>
       </c>
       <c r="F32">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="H32">
         <v>5261</v>
@@ -1705,7 +1705,7 @@
         <v>6156</v>
       </c>
       <c r="J32">
-        <v>6759</v>
+        <v>6770</v>
       </c>
       <c r="L32" s="2">
         <v>8.1</v>
@@ -1733,10 +1733,10 @@
         <v>5.7438888888888888</v>
       </c>
       <c r="E33">
-        <v>6.6427777777777779</v>
+        <v>3.9630555555555556</v>
       </c>
       <c r="F33">
-        <v>10.7</v>
+        <v>14.3</v>
       </c>
       <c r="H33">
         <v>5264</v>
@@ -1745,7 +1745,7 @@
         <v>6158</v>
       </c>
       <c r="J33">
-        <v>6761</v>
+        <v>6772</v>
       </c>
       <c r="L33">
         <v>8.3000000000000007</v>
@@ -1773,10 +1773,10 @@
         <v>6.3869444444444445</v>
       </c>
       <c r="E34">
-        <v>5.4355555555555553</v>
+        <v>2.3752777777777778</v>
       </c>
       <c r="F34">
-        <v>7.92</v>
+        <v>13.2</v>
       </c>
       <c r="H34">
         <v>5277</v>
@@ -1785,7 +1785,7 @@
         <v>6160</v>
       </c>
       <c r="J34">
-        <v>6762</v>
+        <v>6773</v>
       </c>
       <c r="L34">
         <v>1.1000000000000001</v>
@@ -1813,10 +1813,10 @@
         <v>11.013055555555555</v>
       </c>
       <c r="E35">
-        <v>11.651388888888889</v>
+        <v>2.2669444444444444</v>
       </c>
       <c r="F35">
-        <v>13.1</v>
+        <v>14.1</v>
       </c>
       <c r="H35">
         <v>5282</v>
@@ -1825,7 +1825,7 @@
         <v>6161</v>
       </c>
       <c r="J35">
-        <v>6770</v>
+        <v>6774</v>
       </c>
       <c r="L35" s="2">
         <v>8.4</v>
@@ -1853,10 +1853,10 @@
         <v>10.412222222222223</v>
       </c>
       <c r="E36">
-        <v>3.9630555555555556</v>
+        <v>5.4513888888888893</v>
       </c>
       <c r="F36">
-        <v>14.3</v>
+        <v>4.25</v>
       </c>
       <c r="H36">
         <v>5339</v>
@@ -1865,7 +1865,7 @@
         <v>6165</v>
       </c>
       <c r="J36">
-        <v>6772</v>
+        <v>6778</v>
       </c>
       <c r="L36" s="2">
         <v>8.4</v>
@@ -1893,10 +1893,10 @@
         <v>5.51</v>
       </c>
       <c r="E37">
-        <v>2.3752777777777778</v>
+        <v>4.3866666666666667</v>
       </c>
       <c r="F37">
-        <v>13.2</v>
+        <v>15</v>
       </c>
       <c r="H37">
         <v>5340</v>
@@ -1905,7 +1905,7 @@
         <v>6167</v>
       </c>
       <c r="J37">
-        <v>6773</v>
+        <v>6882</v>
       </c>
       <c r="L37" s="2">
         <v>9.1</v>
@@ -1933,10 +1933,10 @@
         <v>4.5677777777777777</v>
       </c>
       <c r="E38">
-        <v>2.2669444444444444</v>
+        <v>13.780833333333334</v>
       </c>
       <c r="F38">
-        <v>14.1</v>
+        <v>22.9</v>
       </c>
       <c r="H38">
         <v>5394</v>
@@ -1945,7 +1945,7 @@
         <v>6168</v>
       </c>
       <c r="J38">
-        <v>6774</v>
+        <v>6890</v>
       </c>
       <c r="L38">
         <v>9.1999999999999993</v>
@@ -1973,10 +1973,10 @@
         <v>6.7397222222222224</v>
       </c>
       <c r="E39">
-        <v>5.4513888888888893</v>
+        <v>2.8305555555555557</v>
       </c>
       <c r="F39">
-        <v>4.25</v>
+        <v>11.3</v>
       </c>
       <c r="H39">
         <v>5406</v>
@@ -1985,7 +1985,7 @@
         <v>6169</v>
       </c>
       <c r="J39">
-        <v>6778</v>
+        <v>6892</v>
       </c>
       <c r="L39">
         <v>10.5</v>
@@ -2013,10 +2013,10 @@
         <v>4.5319444444444441</v>
       </c>
       <c r="E40">
-        <v>8.7427777777777784</v>
+        <v>14.0375</v>
       </c>
       <c r="F40">
-        <v>9.02</v>
+        <v>14.3</v>
       </c>
       <c r="H40">
         <v>5416</v>
@@ -2025,7 +2025,7 @@
         <v>6170</v>
       </c>
       <c r="J40">
-        <v>6860</v>
+        <v>6901</v>
       </c>
       <c r="L40">
         <v>11.2</v>
@@ -2053,10 +2053,10 @@
         <v>8.1630555555555553</v>
       </c>
       <c r="E41">
-        <v>4.3866666666666667</v>
+        <v>3.4802777777777778</v>
       </c>
       <c r="F41">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>5423</v>
@@ -2065,7 +2065,7 @@
         <v>6171</v>
       </c>
       <c r="J41">
-        <v>6882</v>
+        <v>6929</v>
       </c>
       <c r="L41">
         <v>11.5</v>
@@ -2093,10 +2093,10 @@
         <v>12.390277777777778</v>
       </c>
       <c r="E42">
-        <v>13.780833333333334</v>
+        <v>8.3533333333333335</v>
       </c>
       <c r="F42">
-        <v>22.9</v>
+        <v>12.5</v>
       </c>
       <c r="H42">
         <v>5427</v>
@@ -2105,7 +2105,7 @@
         <v>6174</v>
       </c>
       <c r="J42">
-        <v>6890</v>
+        <v>6931</v>
       </c>
       <c r="L42" s="2">
         <v>12.1</v>
@@ -2133,10 +2133,10 @@
         <v>11.660833333333333</v>
       </c>
       <c r="E43">
-        <v>2.8305555555555557</v>
+        <v>18.302499999999998</v>
       </c>
       <c r="F43">
-        <v>11.3</v>
+        <v>3.42</v>
       </c>
       <c r="H43">
         <v>5439</v>
@@ -2145,7 +2145,7 @@
         <v>6175</v>
       </c>
       <c r="J43">
-        <v>6892</v>
+        <v>6939</v>
       </c>
       <c r="L43">
         <v>13</v>
@@ -2173,10 +2173,10 @@
         <v>12.201388888888889</v>
       </c>
       <c r="E44">
-        <v>14.0375</v>
+        <v>2.1466666666666665</v>
       </c>
       <c r="F44">
-        <v>14.3</v>
+        <v>7.23</v>
       </c>
       <c r="H44">
         <v>5442</v>
@@ -2185,7 +2185,7 @@
         <v>6177</v>
       </c>
       <c r="J44">
-        <v>6901</v>
+        <v>6940</v>
       </c>
       <c r="L44">
         <v>13.3</v>
@@ -2213,10 +2213,10 @@
         <v>11.9175</v>
       </c>
       <c r="E45">
-        <v>3.4802777777777778</v>
+        <v>11.920555555555556</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="H45">
         <v>5443</v>
@@ -2225,7 +2225,7 @@
         <v>6186</v>
       </c>
       <c r="J45">
-        <v>6929</v>
+        <v>6953</v>
       </c>
       <c r="L45">
         <v>13.4</v>
@@ -2253,10 +2253,10 @@
         <v>13.088611111111112</v>
       </c>
       <c r="E46">
-        <v>8.3533333333333335</v>
+        <v>2.2233333333333332</v>
       </c>
       <c r="F46">
-        <v>12.5</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="H46">
         <v>5451</v>
@@ -2265,7 +2265,7 @@
         <v>6189</v>
       </c>
       <c r="J46">
-        <v>6931</v>
+        <v>6961</v>
       </c>
       <c r="L46" s="2">
         <v>13.9</v>
@@ -2287,16 +2287,16 @@
         <v>12.367777777777778</v>
       </c>
       <c r="E47">
-        <v>18.302499999999998</v>
+        <v>14.640833333333333</v>
       </c>
       <c r="F47">
-        <v>3.42</v>
+        <v>13.1</v>
       </c>
       <c r="I47">
         <v>6191</v>
       </c>
       <c r="J47">
-        <v>6939</v>
+        <v>7017</v>
       </c>
       <c r="L47">
         <v>14.3</v>
@@ -2318,16 +2318,16 @@
         <v>5.2930555555555552</v>
       </c>
       <c r="E48">
-        <v>2.1466666666666665</v>
+        <v>3.3908333333333331</v>
       </c>
       <c r="F48">
-        <v>7.23</v>
+        <v>13.9</v>
       </c>
       <c r="I48">
         <v>6193</v>
       </c>
       <c r="J48">
-        <v>6940</v>
+        <v>7018</v>
       </c>
       <c r="L48" s="2">
         <v>14.3</v>
@@ -2349,16 +2349,16 @@
         <v>12.1</v>
       </c>
       <c r="E49">
-        <v>11.920555555555556</v>
+        <v>7.0038888888888886</v>
       </c>
       <c r="F49">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="I49">
         <v>6240</v>
       </c>
       <c r="J49">
-        <v>6953</v>
+        <v>7024</v>
       </c>
       <c r="L49">
         <v>14.8</v>
@@ -2380,16 +2380,16 @@
         <v>12.9</v>
       </c>
       <c r="E50">
-        <v>2.2233333333333332</v>
+        <v>4.3277777777777775</v>
       </c>
       <c r="F50">
-        <v>9.6300000000000008</v>
+        <v>2.63</v>
       </c>
       <c r="I50">
         <v>6241</v>
       </c>
       <c r="J50">
-        <v>6961</v>
+        <v>7026</v>
       </c>
       <c r="L50">
         <v>14.9</v>
@@ -2411,16 +2411,16 @@
         <v>13</v>
       </c>
       <c r="E51">
-        <v>15.535555555555556</v>
+        <v>7.9255555555555555</v>
       </c>
       <c r="F51">
-        <v>4.8099999999999996</v>
+        <v>13.9</v>
       </c>
       <c r="I51">
         <v>6243</v>
       </c>
       <c r="J51">
-        <v>7003</v>
+        <v>7031</v>
       </c>
       <c r="L51">
         <v>15</v>
@@ -2442,16 +2442,16 @@
         <v>12.3</v>
       </c>
       <c r="E52">
-        <v>14.640833333333333</v>
+        <v>4.346111111111111</v>
       </c>
       <c r="F52">
-        <v>13.1</v>
+        <v>9.83</v>
       </c>
       <c r="I52">
         <v>6245</v>
       </c>
       <c r="J52">
-        <v>7017</v>
+        <v>7033</v>
       </c>
       <c r="L52">
         <v>15.6</v>
@@ -2473,16 +2473,16 @@
         <v>12.8</v>
       </c>
       <c r="E53">
-        <v>3.3908333333333331</v>
+        <v>2.9158333333333335</v>
       </c>
       <c r="F53">
-        <v>13.9</v>
+        <v>3.74</v>
       </c>
       <c r="I53">
         <v>6252</v>
       </c>
       <c r="J53">
-        <v>7018</v>
+        <v>7036</v>
       </c>
       <c r="L53" s="2">
         <v>16</v>
@@ -2504,16 +2504,16 @@
         <v>13.7</v>
       </c>
       <c r="E54">
-        <v>7.0038888888888886</v>
+        <v>11.978055555555555</v>
       </c>
       <c r="F54">
-        <v>11.5</v>
+        <v>12.3</v>
       </c>
       <c r="I54">
         <v>6253</v>
       </c>
       <c r="J54">
-        <v>7024</v>
+        <v>7039</v>
       </c>
       <c r="L54">
         <v>16.2</v>
@@ -2535,16 +2535,16 @@
         <v>16.8</v>
       </c>
       <c r="E55">
-        <v>4.3277777777777775</v>
+        <v>10.254166666666666</v>
       </c>
       <c r="F55">
-        <v>2.63</v>
+        <v>13.1</v>
       </c>
       <c r="I55">
         <v>6255</v>
       </c>
       <c r="J55">
-        <v>7026</v>
+        <v>7042</v>
       </c>
       <c r="L55">
         <v>16.5</v>
@@ -2566,16 +2566,16 @@
         <v>0.25700000000000001</v>
       </c>
       <c r="E56">
-        <v>7.9255555555555555</v>
+        <v>2.6355555555555554</v>
       </c>
       <c r="F56">
-        <v>13.9</v>
+        <v>26.6</v>
       </c>
       <c r="I56">
         <v>6258</v>
       </c>
       <c r="J56">
-        <v>7031</v>
+        <v>7056</v>
       </c>
       <c r="L56">
         <v>16.5</v>
@@ -2597,16 +2597,16 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>4.346111111111111</v>
+        <v>2.713888888888889</v>
       </c>
       <c r="F57">
-        <v>9.83</v>
+        <v>14.2</v>
       </c>
       <c r="I57">
         <v>6259</v>
       </c>
       <c r="J57">
-        <v>7033</v>
+        <v>7061</v>
       </c>
       <c r="L57">
         <v>16.600000000000001</v>
@@ -2628,16 +2628,16 @@
         <v>10.3</v>
       </c>
       <c r="E58">
-        <v>2.9158333333333335</v>
+        <v>6.5211111111111109</v>
       </c>
       <c r="F58">
-        <v>3.74</v>
+        <v>13</v>
       </c>
       <c r="I58">
         <v>6268</v>
       </c>
       <c r="J58">
-        <v>7036</v>
+        <v>7065</v>
       </c>
       <c r="L58">
         <v>16.8</v>
@@ -2659,16 +2659,16 @@
         <v>11.9</v>
       </c>
       <c r="E59">
-        <v>11.978055555555555</v>
+        <v>4.8594444444444447</v>
       </c>
       <c r="F59">
-        <v>12.3</v>
+        <v>13.2</v>
       </c>
       <c r="I59">
         <v>6271</v>
       </c>
       <c r="J59">
-        <v>7039</v>
+        <v>7069</v>
       </c>
       <c r="L59">
         <v>16.899999999999999</v>
@@ -2690,16 +2690,16 @@
         <v>12</v>
       </c>
       <c r="E60">
-        <v>10.254166666666666</v>
+        <v>10.859444444444444</v>
       </c>
       <c r="F60">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="I60">
         <v>6272</v>
       </c>
       <c r="J60">
-        <v>7042</v>
+        <v>7087</v>
       </c>
       <c r="L60" s="2">
         <v>17.100000000000001</v>
@@ -2721,16 +2721,16 @@
         <v>12.9</v>
       </c>
       <c r="E61">
-        <v>2.6355555555555554</v>
+        <v>4.4891666666666667</v>
       </c>
       <c r="F61">
-        <v>26.6</v>
+        <v>12.6</v>
       </c>
       <c r="I61">
         <v>6275</v>
       </c>
       <c r="J61">
-        <v>7056</v>
+        <v>7090</v>
       </c>
       <c r="L61" s="2">
         <v>17.7</v>
@@ -2752,16 +2752,16 @@
         <v>12</v>
       </c>
       <c r="E62">
-        <v>2.713888888888889</v>
+        <v>2.2894444444444444</v>
       </c>
       <c r="F62">
-        <v>14.2</v>
+        <v>13.1</v>
       </c>
       <c r="I62">
         <v>6283</v>
       </c>
       <c r="J62">
-        <v>7061</v>
+        <v>7091</v>
       </c>
       <c r="L62">
         <v>18.399999999999999</v>
@@ -2783,16 +2783,16 @@
         <v>7.88</v>
       </c>
       <c r="E63">
-        <v>6.5211111111111109</v>
+        <v>6.5041666666666664</v>
       </c>
       <c r="F63">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="I63">
         <v>6285</v>
       </c>
       <c r="J63">
-        <v>7065</v>
+        <v>7097</v>
       </c>
       <c r="L63">
         <v>18.5</v>
@@ -2814,16 +2814,16 @@
         <v>13.4</v>
       </c>
       <c r="E64">
-        <v>4.8594444444444447</v>
+        <v>9.6127777777777776</v>
       </c>
       <c r="F64">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="I64">
         <v>6287</v>
       </c>
       <c r="J64">
-        <v>7069</v>
+        <v>7105</v>
       </c>
       <c r="L64">
         <v>18.8</v>
@@ -2845,16 +2845,16 @@
         <v>12.1</v>
       </c>
       <c r="E65">
-        <v>10.859444444444444</v>
+        <v>4.6524999999999999</v>
       </c>
       <c r="F65">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="I65">
         <v>6288</v>
       </c>
       <c r="J65">
-        <v>7087</v>
+        <v>7108</v>
       </c>
       <c r="L65">
         <v>20.9</v>
@@ -2876,16 +2876,16 @@
         <v>19</v>
       </c>
       <c r="E66">
-        <v>4.4891666666666667</v>
+        <v>1.9836111111111112</v>
       </c>
       <c r="F66">
-        <v>12.6</v>
+        <v>11.5</v>
       </c>
       <c r="I66">
         <v>6291</v>
       </c>
       <c r="J66">
-        <v>7090</v>
+        <v>7110</v>
       </c>
       <c r="L66">
         <v>21.4</v>
@@ -2907,16 +2907,16 @@
         <v>17.100000000000001</v>
       </c>
       <c r="E67">
-        <v>2.2894444444444444</v>
+        <v>4.3083333333333336</v>
       </c>
       <c r="F67">
-        <v>13.1</v>
+        <v>6.73</v>
       </c>
       <c r="I67">
         <v>6298</v>
       </c>
       <c r="J67">
-        <v>7091</v>
+        <v>7118</v>
       </c>
       <c r="L67">
         <v>21.5</v>
@@ -2938,16 +2938,16 @@
         <v>13.5</v>
       </c>
       <c r="E68">
-        <v>6.5041666666666664</v>
+        <v>3.5402777777777779</v>
       </c>
       <c r="F68">
-        <v>13.6</v>
+        <v>5.38</v>
       </c>
       <c r="I68">
         <v>6303</v>
       </c>
       <c r="J68">
-        <v>7097</v>
+        <v>7120</v>
       </c>
       <c r="L68">
         <v>21.7</v>
@@ -2969,16 +2969,16 @@
         <v>12.3</v>
       </c>
       <c r="E69">
-        <v>9.6127777777777776</v>
+        <v>3.6324999999999998</v>
       </c>
       <c r="F69">
-        <v>13.5</v>
+        <v>11.3</v>
       </c>
       <c r="I69">
         <v>6304</v>
       </c>
       <c r="J69">
-        <v>7105</v>
+        <v>7123</v>
       </c>
       <c r="L69" s="2">
         <v>22.1</v>
@@ -3000,7 +3000,7 @@
         <v>13</v>
       </c>
       <c r="E70">
-        <v>4.6524999999999999</v>
+        <v>1.9355555555555555</v>
       </c>
       <c r="F70">
         <v>12.4</v>
@@ -3009,7 +3009,7 @@
         <v>6305</v>
       </c>
       <c r="J70">
-        <v>7108</v>
+        <v>7124</v>
       </c>
       <c r="L70" s="2">
         <v>22.4</v>
@@ -3031,16 +3031,16 @@
         <v>12.8</v>
       </c>
       <c r="E71">
-        <v>1.9836111111111112</v>
+        <v>5.4327777777777779</v>
       </c>
       <c r="F71">
-        <v>11.5</v>
+        <v>12.2</v>
       </c>
       <c r="I71">
         <v>6308</v>
       </c>
       <c r="J71">
-        <v>7110</v>
+        <v>7127</v>
       </c>
       <c r="L71">
         <v>22.4</v>
@@ -3056,22 +3056,22 @@
     </row>
     <row r="72" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C72">
-        <v>2.714</v>
+        <v>4.08</v>
       </c>
       <c r="D72">
-        <v>0.91500000000000004</v>
+        <v>12.9</v>
       </c>
       <c r="E72">
-        <v>4.3083333333333336</v>
+        <v>3.0024999999999999</v>
       </c>
       <c r="F72">
-        <v>6.73</v>
+        <v>3.55</v>
       </c>
       <c r="I72">
-        <v>6309</v>
+        <v>6311</v>
       </c>
       <c r="J72">
-        <v>7118</v>
+        <v>7135</v>
       </c>
       <c r="L72">
         <v>22.9</v>
@@ -3087,22 +3087,22 @@
     </row>
     <row r="73" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C73">
-        <v>4.08</v>
+        <v>2.7890000000000001</v>
       </c>
       <c r="D73">
-        <v>12.9</v>
+        <v>11.4</v>
       </c>
       <c r="E73">
-        <v>3.5402777777777779</v>
+        <v>3.6655555555555557</v>
       </c>
       <c r="F73">
-        <v>5.38</v>
+        <v>12.5</v>
       </c>
       <c r="I73">
-        <v>6311</v>
+        <v>6312</v>
       </c>
       <c r="J73">
-        <v>7120</v>
+        <v>7139</v>
       </c>
       <c r="L73">
         <v>23.2</v>
@@ -3118,22 +3118,22 @@
     </row>
     <row r="74" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C74">
-        <v>2.7890000000000001</v>
+        <v>2.395</v>
       </c>
       <c r="D74">
-        <v>11.4</v>
+        <v>14.4</v>
       </c>
       <c r="E74">
-        <v>3.6324999999999998</v>
+        <v>2.2850000000000001</v>
       </c>
       <c r="F74">
-        <v>11.3</v>
+        <v>8.98</v>
       </c>
       <c r="I74">
-        <v>6312</v>
+        <v>6314</v>
       </c>
       <c r="J74">
-        <v>7123</v>
+        <v>7145</v>
       </c>
       <c r="L74" s="2">
         <v>23.4</v>
@@ -3149,22 +3149,22 @@
     </row>
     <row r="75" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C75">
-        <v>2.395</v>
+        <v>7.2519999999999998</v>
       </c>
       <c r="D75">
-        <v>14.4</v>
+        <v>13.1</v>
       </c>
       <c r="E75">
-        <v>1.9355555555555555</v>
+        <v>7.29</v>
       </c>
       <c r="F75">
-        <v>12.4</v>
+        <v>8.7747222222222216</v>
       </c>
       <c r="I75">
-        <v>6314</v>
+        <v>6317</v>
       </c>
       <c r="J75">
-        <v>7124</v>
+        <v>7217</v>
       </c>
       <c r="L75">
         <v>23.8</v>
@@ -3180,22 +3180,22 @@
     </row>
     <row r="76" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C76">
-        <v>7.2519999999999998</v>
+        <v>5.569</v>
       </c>
       <c r="D76">
-        <v>13.1</v>
+        <v>16.2</v>
       </c>
       <c r="E76">
-        <v>5.4327777777777779</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F76">
-        <v>12.2</v>
+        <v>10.723611111111111</v>
       </c>
       <c r="I76">
-        <v>6317</v>
+        <v>6324</v>
       </c>
       <c r="J76">
-        <v>7127</v>
+        <v>7218</v>
       </c>
       <c r="L76">
         <v>24.2</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="77" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C77">
-        <v>5.569</v>
+        <v>3.51</v>
       </c>
       <c r="D77">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="E77">
-        <v>3.0024999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="F77">
-        <v>3.55</v>
+        <v>5.4366666666666665</v>
       </c>
       <c r="I77">
-        <v>6324</v>
+        <v>6325</v>
       </c>
       <c r="J77">
-        <v>7135</v>
+        <v>7245</v>
       </c>
       <c r="L77">
         <v>25.3</v>
@@ -3242,22 +3242,22 @@
     </row>
     <row r="78" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C78">
-        <v>3.51</v>
+        <v>4.165</v>
       </c>
       <c r="D78">
-        <v>15.2</v>
+        <v>5.57</v>
       </c>
       <c r="E78">
-        <v>3.6655555555555557</v>
+        <v>4.95</v>
       </c>
       <c r="F78">
-        <v>12.5</v>
+        <v>8.7575000000000003</v>
       </c>
       <c r="I78">
-        <v>6325</v>
+        <v>6337</v>
       </c>
       <c r="J78">
-        <v>7139</v>
+        <v>7256</v>
       </c>
       <c r="L78" s="2">
         <v>25.5</v>
@@ -3273,22 +3273,22 @@
     </row>
     <row r="79" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C79">
-        <v>4.165</v>
+        <v>9.7449999999999992</v>
       </c>
       <c r="D79">
-        <v>5.57</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E79">
-        <v>2.2850000000000001</v>
+        <v>11.78</v>
       </c>
       <c r="F79">
-        <v>8.98</v>
+        <v>9.9275000000000002</v>
       </c>
       <c r="I79">
-        <v>6337</v>
+        <v>6346</v>
       </c>
       <c r="J79">
-        <v>7145</v>
+        <v>7259</v>
       </c>
       <c r="L79">
         <v>25.6</v>
@@ -3304,22 +3304,22 @@
     </row>
     <row r="80" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C80">
-        <v>9.7449999999999992</v>
+        <v>3.262</v>
       </c>
       <c r="D80">
-        <v>17.399999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="E80">
-        <v>7.29</v>
+        <v>10.81</v>
       </c>
       <c r="F80">
-        <v>8.7747222222222216</v>
+        <v>14.974722222222223</v>
       </c>
       <c r="I80">
-        <v>6346</v>
+        <v>6356</v>
       </c>
       <c r="J80">
-        <v>7217</v>
+        <v>7270</v>
       </c>
       <c r="L80">
         <v>25.6</v>
@@ -3335,22 +3335,22 @@
     </row>
     <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81">
-        <v>3.262</v>
+        <v>6.81</v>
       </c>
       <c r="D81">
-        <v>12.1</v>
+        <v>24.2</v>
       </c>
       <c r="E81">
-        <v>4.9000000000000004</v>
+        <v>2.21</v>
       </c>
       <c r="F81">
-        <v>10.723611111111111</v>
+        <v>3.7797222222222224</v>
       </c>
       <c r="I81">
-        <v>6356</v>
+        <v>6360</v>
       </c>
       <c r="J81">
-        <v>7218</v>
+        <v>7271</v>
       </c>
       <c r="L81">
         <v>26.7</v>
@@ -3366,22 +3366,22 @@
     </row>
     <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82">
-        <v>6.81</v>
+        <v>4.1520000000000001</v>
       </c>
       <c r="D82">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="E82">
-        <v>9.56</v>
+        <v>2.11</v>
       </c>
       <c r="F82">
-        <v>5.4366666666666665</v>
+        <v>14.982222222222223</v>
       </c>
       <c r="I82">
-        <v>6360</v>
+        <v>6362</v>
       </c>
       <c r="J82">
-        <v>7245</v>
+        <v>7309</v>
       </c>
       <c r="L82">
         <v>27.3</v>
@@ -3397,22 +3397,22 @@
     </row>
     <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83">
-        <v>4.1520000000000001</v>
+        <v>9.048</v>
       </c>
       <c r="D83">
-        <v>23.9</v>
+        <v>27.4</v>
       </c>
       <c r="E83">
-        <v>4.95</v>
+        <v>2.35</v>
       </c>
       <c r="F83">
-        <v>8.7575000000000003</v>
+        <v>11.745833333333334</v>
       </c>
       <c r="I83">
-        <v>6362</v>
+        <v>6364</v>
       </c>
       <c r="J83">
-        <v>7256</v>
+        <v>7310</v>
       </c>
       <c r="L83">
         <v>27.4</v>
@@ -3428,22 +3428,22 @@
     </row>
     <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84">
-        <v>9.048</v>
+        <v>3.3290000000000002</v>
       </c>
       <c r="D84">
-        <v>27.4</v>
+        <v>23.9</v>
       </c>
       <c r="E84">
-        <v>11.78</v>
+        <v>4.49</v>
       </c>
       <c r="F84">
-        <v>9.9275000000000002</v>
+        <v>15.004722222222222</v>
       </c>
       <c r="I84">
-        <v>6364</v>
+        <v>6371</v>
       </c>
       <c r="J84">
-        <v>7259</v>
+        <v>7314</v>
       </c>
       <c r="L84" s="2">
         <v>29.2</v>
@@ -3458,23 +3458,14 @@
       <c r="R84" s="6"/>
     </row>
     <row r="85" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C85">
-        <v>3.3290000000000002</v>
-      </c>
-      <c r="D85">
-        <v>23.9</v>
-      </c>
       <c r="E85">
-        <v>10.81</v>
+        <v>2.61</v>
       </c>
       <c r="F85">
-        <v>14.974722222222223</v>
-      </c>
-      <c r="I85">
-        <v>6371</v>
+        <v>11.330277777777777</v>
       </c>
       <c r="J85">
-        <v>7270</v>
+        <v>7315</v>
       </c>
       <c r="L85">
         <v>37</v>
@@ -3490,13 +3481,13 @@
     </row>
     <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E86">
-        <v>2.21</v>
+        <v>7.2</v>
       </c>
       <c r="F86">
-        <v>3.7797222222222224</v>
+        <v>15.141944444444444</v>
       </c>
       <c r="J86">
-        <v>7271</v>
+        <v>7320</v>
       </c>
       <c r="M86">
         <v>14.1</v>
@@ -3509,13 +3500,13 @@
     </row>
     <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E87">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
       <c r="F87">
-        <v>14.982222222222223</v>
+        <v>14.969166666666666</v>
       </c>
       <c r="J87">
-        <v>7309</v>
+        <v>7321</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87">
@@ -3529,13 +3520,13 @@
     </row>
     <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E88">
-        <v>2.35</v>
+        <v>5.29</v>
       </c>
       <c r="F88">
-        <v>11.745833333333334</v>
+        <v>9.8744444444444444</v>
       </c>
       <c r="J88">
-        <v>7310</v>
+        <v>7324</v>
       </c>
       <c r="M88" s="2">
         <v>14.3</v>
@@ -3548,13 +3539,13 @@
     </row>
     <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E89">
-        <v>4.49</v>
+        <v>6.78</v>
       </c>
       <c r="F89">
-        <v>15.004722222222222</v>
+        <v>10.102222222222222</v>
       </c>
       <c r="J89">
-        <v>7314</v>
+        <v>7328</v>
       </c>
       <c r="M89" s="2">
         <v>14.4</v>
@@ -3567,13 +3558,13 @@
     </row>
     <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E90">
-        <v>2.61</v>
+        <v>4.93</v>
       </c>
       <c r="F90">
-        <v>11.330277777777777</v>
+        <v>13.964722222222223</v>
       </c>
       <c r="J90">
-        <v>7315</v>
+        <v>7333</v>
       </c>
       <c r="M90" s="2">
         <v>14.4</v>
@@ -3586,13 +3577,13 @@
     </row>
     <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E91">
-        <v>7.2</v>
+        <v>3.35</v>
       </c>
       <c r="F91">
-        <v>15.141944444444444</v>
+        <v>13.423611111111111</v>
       </c>
       <c r="J91">
-        <v>7320</v>
+        <v>7334</v>
       </c>
       <c r="M91" s="2">
         <v>14.6</v>
@@ -3604,15 +3595,6 @@
       <c r="R91" s="6"/>
     </row>
     <row r="92" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E92">
-        <v>2.29</v>
-      </c>
-      <c r="F92">
-        <v>14.969166666666666</v>
-      </c>
-      <c r="J92">
-        <v>7321</v>
-      </c>
       <c r="M92">
         <v>15</v>
       </c>
@@ -3623,15 +3605,6 @@
       <c r="R92" s="6"/>
     </row>
     <row r="93" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E93">
-        <v>5.29</v>
-      </c>
-      <c r="F93">
-        <v>9.8744444444444444</v>
-      </c>
-      <c r="J93">
-        <v>7324</v>
-      </c>
       <c r="M93">
         <v>15.2</v>
       </c>
@@ -3642,15 +3615,6 @@
       <c r="R93" s="6"/>
     </row>
     <row r="94" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E94">
-        <v>6.78</v>
-      </c>
-      <c r="F94">
-        <v>10.102222222222222</v>
-      </c>
-      <c r="J94">
-        <v>7328</v>
-      </c>
       <c r="M94" s="2">
         <v>15.6</v>
       </c>
@@ -3661,15 +3625,6 @@
       <c r="R94" s="6"/>
     </row>
     <row r="95" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E95">
-        <v>4.93</v>
-      </c>
-      <c r="F95">
-        <v>13.964722222222223</v>
-      </c>
-      <c r="J95">
-        <v>7333</v>
-      </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2">
         <v>16.100000000000001</v>
@@ -3681,15 +3636,6 @@
       <c r="R95" s="6"/>
     </row>
     <row r="96" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E96">
-        <v>3.35</v>
-      </c>
-      <c r="F96">
-        <v>13.423611111111111</v>
-      </c>
-      <c r="J96">
-        <v>7334</v>
-      </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2">
         <v>16.100000000000001</v>

--- a/FillData.xlsx
+++ b/FillData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GiuliaFaletti/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GiuliaFaletti/code2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E030D25-E62B-4B40-B8E9-51E9B4ED9D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C19E2D0-6B91-9C40-8FF1-87F231DDDABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{B2C73B6C-267B-644D-A440-B3FA083594A0}"/>
   </bookViews>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9917E895-DFBB-704E-AD24-D79E9DFD8B04}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="T73" sqref="T73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,10 +974,10 @@
         <v>14.579444444444444</v>
       </c>
       <c r="E14">
-        <v>4.046388888888889</v>
+        <v>2.6902777777777778</v>
       </c>
       <c r="F14">
-        <v>8.82</v>
+        <v>9.51</v>
       </c>
       <c r="H14">
         <v>5096</v>
@@ -986,7 +986,7 @@
         <v>6050</v>
       </c>
       <c r="J14">
-        <v>6690</v>
+        <v>6694</v>
       </c>
       <c r="L14">
         <v>3.6</v>
@@ -1013,10 +1013,10 @@
         <v>13.599722222222223</v>
       </c>
       <c r="E15">
-        <v>2.2533333333333334</v>
+        <v>7.0736111111111111</v>
       </c>
       <c r="F15">
-        <v>9.84</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="H15">
         <v>5097</v>
@@ -1025,7 +1025,7 @@
         <v>6052</v>
       </c>
       <c r="J15">
-        <v>6693</v>
+        <v>6696</v>
       </c>
       <c r="L15">
         <v>4.2</v>
@@ -1047,25 +1047,25 @@
         <v>21.386666666666667</v>
       </c>
       <c r="C16">
-        <v>3.5449999999999999</v>
+        <v>9.7249999999999996</v>
       </c>
       <c r="D16">
-        <v>16.089166666666667</v>
+        <v>14.330833333333333</v>
       </c>
       <c r="E16">
-        <v>2.6902777777777778</v>
+        <v>2.7425000000000002</v>
       </c>
       <c r="F16">
-        <v>9.51</v>
+        <v>12.5</v>
       </c>
       <c r="H16">
         <v>5102</v>
       </c>
       <c r="I16">
-        <v>6055</v>
+        <v>6060</v>
       </c>
       <c r="J16">
-        <v>6694</v>
+        <v>6700</v>
       </c>
       <c r="L16">
         <v>4.5</v>
@@ -1087,25 +1087,25 @@
         <v>27.375555555555554</v>
       </c>
       <c r="C17">
-        <v>9.7249999999999996</v>
+        <v>2.6472222222222221</v>
       </c>
       <c r="D17">
-        <v>14.330833333333333</v>
+        <v>9.4088888888888889</v>
       </c>
       <c r="E17">
-        <v>7.0736111111111111</v>
+        <v>7.5858333333333334</v>
       </c>
       <c r="F17">
-        <v>8.6199999999999992</v>
+        <v>3.59</v>
       </c>
       <c r="H17">
         <v>5105</v>
       </c>
       <c r="I17">
-        <v>6060</v>
+        <v>6061</v>
       </c>
       <c r="J17">
-        <v>6696</v>
+        <v>6706</v>
       </c>
       <c r="L17">
         <v>4.7</v>
@@ -1127,25 +1127,25 @@
         <v>18.547222222222221</v>
       </c>
       <c r="C18">
-        <v>2.6472222222222221</v>
+        <v>8.5727777777777785</v>
       </c>
       <c r="D18">
-        <v>9.4088888888888889</v>
+        <v>6.0347222222222223</v>
       </c>
       <c r="E18">
-        <v>2.7425000000000002</v>
+        <v>5.2761111111111108</v>
       </c>
       <c r="F18">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>5106</v>
       </c>
       <c r="I18">
-        <v>6061</v>
+        <v>6082</v>
       </c>
       <c r="J18">
-        <v>6700</v>
+        <v>6711</v>
       </c>
       <c r="L18">
         <v>4.9000000000000004</v>
@@ -1167,25 +1167,25 @@
         <v>16.861944444444443</v>
       </c>
       <c r="C19">
-        <v>8.5727777777777785</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="D19">
-        <v>6.0347222222222223</v>
+        <v>6.0130555555555558</v>
       </c>
       <c r="E19">
-        <v>7.5858333333333334</v>
+        <v>2.5511111111111111</v>
       </c>
       <c r="F19">
-        <v>3.59</v>
+        <v>10.4</v>
       </c>
       <c r="H19">
         <v>5109</v>
       </c>
       <c r="I19">
-        <v>6082</v>
+        <v>6084</v>
       </c>
       <c r="J19">
-        <v>6706</v>
+        <v>6712</v>
       </c>
       <c r="L19">
         <v>5.3</v>
@@ -1207,25 +1207,25 @@
         <v>17.105833333333333</v>
       </c>
       <c r="C20">
-        <v>3.4249999999999998</v>
+        <v>12.324999999999999</v>
       </c>
       <c r="D20">
-        <v>6.0130555555555558</v>
+        <v>6.6469444444444443</v>
       </c>
       <c r="E20">
-        <v>5.2761111111111108</v>
+        <v>2.6875</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20">
         <v>5111</v>
       </c>
       <c r="I20">
-        <v>6084</v>
+        <v>6089</v>
       </c>
       <c r="J20">
-        <v>6711</v>
+        <v>6714</v>
       </c>
       <c r="L20">
         <v>5.6</v>
@@ -1247,25 +1247,25 @@
         <v>3.069722222222222</v>
       </c>
       <c r="C21">
-        <v>12.324999999999999</v>
+        <v>3.1305555555555555</v>
       </c>
       <c r="D21">
-        <v>6.6469444444444443</v>
+        <v>6.26</v>
       </c>
       <c r="E21">
-        <v>2.5511111111111111</v>
+        <v>19.920555555555556</v>
       </c>
       <c r="F21">
-        <v>10.4</v>
+        <v>11.7</v>
       </c>
       <c r="H21">
         <v>5112</v>
       </c>
       <c r="I21">
-        <v>6089</v>
+        <v>6091</v>
       </c>
       <c r="J21">
-        <v>6712</v>
+        <v>6729</v>
       </c>
       <c r="L21">
         <v>5.7</v>
@@ -1287,25 +1287,25 @@
         <v>4.4961111111111114</v>
       </c>
       <c r="C22">
-        <v>3.1305555555555555</v>
+        <v>2.8769444444444443</v>
       </c>
       <c r="D22">
-        <v>6.26</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>2.6875</v>
+        <v>2.3208333333333333</v>
       </c>
       <c r="F22">
-        <v>14</v>
+        <v>12.1</v>
       </c>
       <c r="H22">
         <v>5116</v>
       </c>
       <c r="I22">
-        <v>6091</v>
+        <v>6097</v>
       </c>
       <c r="J22">
-        <v>6714</v>
+        <v>6738</v>
       </c>
       <c r="L22" s="2">
         <v>6</v>
@@ -1321,31 +1321,31 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>13.854166666666666</v>
+        <v>9.8025000000000002</v>
       </c>
       <c r="B23">
-        <v>1.7252777777777777</v>
+        <v>12.970833333333333</v>
       </c>
       <c r="C23">
-        <v>2.8769444444444443</v>
+        <v>20.317499999999999</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>9.1402777777777775</v>
       </c>
       <c r="E23">
-        <v>19.920555555555556</v>
+        <v>2.6166666666666667</v>
       </c>
       <c r="F23">
-        <v>11.7</v>
+        <v>8.98</v>
       </c>
       <c r="H23">
-        <v>5117</v>
+        <v>5163</v>
       </c>
       <c r="I23">
-        <v>6097</v>
+        <v>6104</v>
       </c>
       <c r="J23">
-        <v>6729</v>
+        <v>6741</v>
       </c>
       <c r="L23" s="2">
         <v>6.2</v>
@@ -1361,31 +1361,31 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>9.8025000000000002</v>
+        <v>15.161666666666667</v>
       </c>
       <c r="B24">
-        <v>12.970833333333333</v>
+        <v>16.598055555555554</v>
       </c>
       <c r="C24">
-        <v>20.317499999999999</v>
+        <v>11.4275</v>
       </c>
       <c r="D24">
-        <v>9.1402777777777775</v>
+        <v>12.685</v>
       </c>
       <c r="E24">
-        <v>2.3208333333333333</v>
+        <v>10.922777777777778</v>
       </c>
       <c r="F24">
-        <v>12.1</v>
+        <v>3.06</v>
       </c>
       <c r="H24">
-        <v>5163</v>
+        <v>5173</v>
       </c>
       <c r="I24">
-        <v>6104</v>
+        <v>6106</v>
       </c>
       <c r="J24">
-        <v>6738</v>
+        <v>6747</v>
       </c>
       <c r="L24">
         <v>6.3</v>
@@ -1401,31 +1401,31 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>15.161666666666667</v>
+        <v>8.7266666666666666</v>
       </c>
       <c r="B25">
-        <v>16.598055555555554</v>
+        <v>13.414444444444445</v>
       </c>
       <c r="C25">
-        <v>11.4275</v>
+        <v>10.342222222222222</v>
       </c>
       <c r="D25">
-        <v>12.685</v>
+        <v>12.032500000000001</v>
       </c>
       <c r="E25">
-        <v>2.6166666666666667</v>
+        <v>6.6349999999999998</v>
       </c>
       <c r="F25">
-        <v>8.98</v>
+        <v>13.7</v>
       </c>
       <c r="H25">
-        <v>5173</v>
+        <v>5181</v>
       </c>
       <c r="I25">
-        <v>6106</v>
+        <v>6110</v>
       </c>
       <c r="J25">
-        <v>6741</v>
+        <v>6749</v>
       </c>
       <c r="L25">
         <v>6.6</v>
@@ -1441,31 +1441,31 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>8.7266666666666666</v>
+        <v>3.9125000000000001</v>
       </c>
       <c r="B26">
-        <v>13.414444444444445</v>
+        <v>21.466111111111111</v>
       </c>
       <c r="C26">
-        <v>10.342222222222222</v>
+        <v>5.3088888888888892</v>
       </c>
       <c r="D26">
-        <v>12.032500000000001</v>
+        <v>13.499166666666667</v>
       </c>
       <c r="E26">
-        <v>10.922777777777778</v>
+        <v>3.1488888888888891</v>
       </c>
       <c r="F26">
-        <v>3.06</v>
+        <v>12.8</v>
       </c>
       <c r="H26">
-        <v>5181</v>
+        <v>5199</v>
       </c>
       <c r="I26">
-        <v>6110</v>
+        <v>6140</v>
       </c>
       <c r="J26">
-        <v>6747</v>
+        <v>6751</v>
       </c>
       <c r="L26">
         <v>6.7</v>
@@ -1481,31 +1481,31 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>3.9125000000000001</v>
+        <v>14.953611111111112</v>
       </c>
       <c r="B27">
-        <v>21.466111111111111</v>
+        <v>9.0844444444444452</v>
       </c>
       <c r="C27">
-        <v>12.168055555555556</v>
+        <v>2.596111111111111</v>
       </c>
       <c r="D27">
-        <v>5.7672222222222222</v>
+        <v>14.2</v>
       </c>
       <c r="E27">
-        <v>6.6349999999999998</v>
+        <v>2.2805555555555554</v>
       </c>
       <c r="F27">
-        <v>13.7</v>
+        <v>4.22</v>
       </c>
       <c r="H27">
-        <v>5199</v>
+        <v>5205</v>
       </c>
       <c r="I27">
-        <v>6116</v>
+        <v>6142</v>
       </c>
       <c r="J27">
-        <v>6749</v>
+        <v>6752</v>
       </c>
       <c r="L27">
         <v>6.7</v>
@@ -1521,31 +1521,31 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>14.953611111111112</v>
+        <v>9.4047222222222224</v>
       </c>
       <c r="B28">
-        <v>9.0844444444444452</v>
+        <v>16.185277777777777</v>
       </c>
       <c r="C28">
-        <v>5.3088888888888892</v>
+        <v>2.4988888888888887</v>
       </c>
       <c r="D28">
-        <v>13.499166666666667</v>
+        <v>13.608611111111111</v>
       </c>
       <c r="E28">
-        <v>3.1488888888888891</v>
+        <v>6.6222222222222218</v>
       </c>
       <c r="F28">
         <v>12.8</v>
       </c>
       <c r="H28">
-        <v>5205</v>
+        <v>5253</v>
       </c>
       <c r="I28">
-        <v>6140</v>
+        <v>6143</v>
       </c>
       <c r="J28">
-        <v>6751</v>
+        <v>6759</v>
       </c>
       <c r="L28" s="2">
         <v>7</v>
@@ -1561,31 +1561,31 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>9.4047222222222224</v>
+        <v>3.1575000000000002</v>
       </c>
       <c r="B29">
-        <v>16.185277777777777</v>
+        <v>14.912777777777778</v>
       </c>
       <c r="C29">
-        <v>2.596111111111111</v>
+        <v>15.129722222222222</v>
       </c>
       <c r="D29">
-        <v>14.2</v>
+        <v>5.9883333333333333</v>
       </c>
       <c r="E29">
-        <v>2.2805555555555554</v>
+        <v>6.6427777777777779</v>
       </c>
       <c r="F29">
-        <v>4.22</v>
+        <v>10.7</v>
       </c>
       <c r="H29">
-        <v>5253</v>
+        <v>5257</v>
       </c>
       <c r="I29">
-        <v>6142</v>
+        <v>6152</v>
       </c>
       <c r="J29">
-        <v>6752</v>
+        <v>6761</v>
       </c>
       <c r="L29">
         <v>7</v>
@@ -1601,31 +1601,31 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>3.1575000000000002</v>
+        <v>3.4269444444444446</v>
       </c>
       <c r="B30">
-        <v>14.912777777777778</v>
+        <v>15.022500000000001</v>
       </c>
       <c r="C30">
-        <v>2.4988888888888887</v>
+        <v>2.1741666666666668</v>
       </c>
       <c r="D30">
-        <v>13.608611111111111</v>
+        <v>8.6080555555555556</v>
       </c>
       <c r="E30">
-        <v>6.6222222222222218</v>
+        <v>11.651388888888889</v>
       </c>
       <c r="F30">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="H30">
-        <v>5257</v>
+        <v>5258</v>
       </c>
       <c r="I30">
-        <v>6143</v>
+        <v>6156</v>
       </c>
       <c r="J30">
-        <v>6759</v>
+        <v>6770</v>
       </c>
       <c r="L30" s="2">
         <v>7.5</v>
@@ -1641,31 +1641,31 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>3.4269444444444446</v>
+        <v>7.3069444444444445</v>
       </c>
       <c r="B31">
-        <v>15.022500000000001</v>
+        <v>20.896666666666668</v>
       </c>
       <c r="C31">
-        <v>15.129722222222222</v>
+        <v>6.4897222222222224</v>
       </c>
       <c r="D31">
-        <v>5.9883333333333333</v>
+        <v>5.7438888888888888</v>
       </c>
       <c r="E31">
-        <v>6.6427777777777779</v>
+        <v>3.9630555555555556</v>
       </c>
       <c r="F31">
-        <v>10.7</v>
+        <v>14.3</v>
       </c>
       <c r="H31">
-        <v>5258</v>
+        <v>5261</v>
       </c>
       <c r="I31">
-        <v>6152</v>
+        <v>6158</v>
       </c>
       <c r="J31">
-        <v>6761</v>
+        <v>6772</v>
       </c>
       <c r="L31" s="2">
         <v>7.7</v>
@@ -1681,31 +1681,31 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>7.3069444444444445</v>
+        <v>2.68</v>
       </c>
       <c r="B32">
-        <v>20.896666666666668</v>
+        <v>24.218611111111112</v>
       </c>
       <c r="C32">
-        <v>2.1741666666666668</v>
+        <v>2.6363888888888889</v>
       </c>
       <c r="D32">
-        <v>8.6080555555555556</v>
+        <v>6.3869444444444445</v>
       </c>
       <c r="E32">
-        <v>11.651388888888889</v>
+        <v>2.3752777777777778</v>
       </c>
       <c r="F32">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="H32">
-        <v>5261</v>
+        <v>5277</v>
       </c>
       <c r="I32">
-        <v>6156</v>
+        <v>6160</v>
       </c>
       <c r="J32">
-        <v>6770</v>
+        <v>6773</v>
       </c>
       <c r="L32" s="2">
         <v>8.1</v>
@@ -1721,31 +1721,31 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>6.43</v>
+        <v>8.0538888888888884</v>
       </c>
       <c r="B33">
-        <v>6.6883333333333335</v>
+        <v>16.48</v>
       </c>
       <c r="C33">
-        <v>6.4897222222222224</v>
+        <v>10.352499999999999</v>
       </c>
       <c r="D33">
-        <v>5.7438888888888888</v>
+        <v>11.013055555555555</v>
       </c>
       <c r="E33">
-        <v>3.9630555555555556</v>
+        <v>2.2669444444444444</v>
       </c>
       <c r="F33">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="H33">
-        <v>5264</v>
+        <v>5282</v>
       </c>
       <c r="I33">
-        <v>6158</v>
+        <v>6161</v>
       </c>
       <c r="J33">
-        <v>6772</v>
+        <v>6774</v>
       </c>
       <c r="L33">
         <v>8.3000000000000007</v>
@@ -1761,31 +1761,31 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2.68</v>
+        <v>2.9658333333333333</v>
       </c>
       <c r="B34">
-        <v>24.218611111111112</v>
+        <v>16.513888888888889</v>
       </c>
       <c r="C34">
-        <v>2.6363888888888889</v>
+        <v>8.2077777777777783</v>
       </c>
       <c r="D34">
-        <v>6.3869444444444445</v>
+        <v>10.412222222222223</v>
       </c>
       <c r="E34">
-        <v>2.3752777777777778</v>
+        <v>5.4513888888888893</v>
       </c>
       <c r="F34">
-        <v>13.2</v>
+        <v>4.25</v>
       </c>
       <c r="H34">
-        <v>5277</v>
+        <v>5339</v>
       </c>
       <c r="I34">
-        <v>6160</v>
+        <v>6165</v>
       </c>
       <c r="J34">
-        <v>6773</v>
+        <v>6778</v>
       </c>
       <c r="L34">
         <v>1.1000000000000001</v>
@@ -1801,31 +1801,31 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>8.0538888888888884</v>
+        <v>2.588888888888889</v>
       </c>
       <c r="B35">
-        <v>16.48</v>
+        <v>18.823888888888888</v>
       </c>
       <c r="C35">
-        <v>10.352499999999999</v>
+        <v>2.589722222222222</v>
       </c>
       <c r="D35">
-        <v>11.013055555555555</v>
+        <v>4.5677777777777777</v>
       </c>
       <c r="E35">
-        <v>2.2669444444444444</v>
+        <v>13.780833333333334</v>
       </c>
       <c r="F35">
-        <v>14.1</v>
+        <v>22.9</v>
       </c>
       <c r="H35">
-        <v>5282</v>
+        <v>5340</v>
       </c>
       <c r="I35">
-        <v>6161</v>
+        <v>6168</v>
       </c>
       <c r="J35">
-        <v>6774</v>
+        <v>6890</v>
       </c>
       <c r="L35" s="2">
         <v>8.4</v>
@@ -1841,31 +1841,31 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2.9658333333333333</v>
+        <v>8.0730555555555554</v>
       </c>
       <c r="B36">
-        <v>16.513888888888889</v>
+        <v>16.759166666666665</v>
       </c>
       <c r="C36">
-        <v>8.2077777777777783</v>
+        <v>2.8927777777777779</v>
       </c>
       <c r="D36">
-        <v>10.412222222222223</v>
+        <v>6.7397222222222224</v>
       </c>
       <c r="E36">
-        <v>5.4513888888888893</v>
+        <v>2.8305555555555557</v>
       </c>
       <c r="F36">
-        <v>4.25</v>
+        <v>11.3</v>
       </c>
       <c r="H36">
-        <v>5339</v>
+        <v>5394</v>
       </c>
       <c r="I36">
-        <v>6165</v>
+        <v>6169</v>
       </c>
       <c r="J36">
-        <v>6778</v>
+        <v>6892</v>
       </c>
       <c r="L36" s="2">
         <v>8.4</v>
@@ -1881,31 +1881,31 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2.588888888888889</v>
+        <v>2.9516666666666667</v>
       </c>
       <c r="B37">
-        <v>18.823888888888888</v>
+        <v>6.972777777777778</v>
       </c>
       <c r="C37">
-        <v>8.5572222222222223</v>
+        <v>10.693888888888889</v>
       </c>
       <c r="D37">
-        <v>5.51</v>
+        <v>12.390277777777778</v>
       </c>
       <c r="E37">
-        <v>4.3866666666666667</v>
+        <v>14.0375</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="H37">
-        <v>5340</v>
+        <v>5406</v>
       </c>
       <c r="I37">
-        <v>6167</v>
+        <v>6174</v>
       </c>
       <c r="J37">
-        <v>6882</v>
+        <v>6901</v>
       </c>
       <c r="L37" s="2">
         <v>9.1</v>
@@ -1921,31 +1921,31 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>8.0730555555555554</v>
+        <v>6.8216666666666663</v>
       </c>
       <c r="B38">
-        <v>16.759166666666665</v>
+        <v>23.449722222222221</v>
       </c>
       <c r="C38">
-        <v>2.589722222222222</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="D38">
-        <v>4.5677777777777777</v>
+        <v>11.660833333333333</v>
       </c>
       <c r="E38">
-        <v>13.780833333333334</v>
+        <v>8.3533333333333335</v>
       </c>
       <c r="F38">
-        <v>22.9</v>
+        <v>12.5</v>
       </c>
       <c r="H38">
-        <v>5394</v>
+        <v>5416</v>
       </c>
       <c r="I38">
-        <v>6168</v>
+        <v>6175</v>
       </c>
       <c r="J38">
-        <v>6890</v>
+        <v>6931</v>
       </c>
       <c r="L38">
         <v>9.1999999999999993</v>
@@ -1961,31 +1961,31 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2.9516666666666667</v>
+        <v>4.371666666666667</v>
       </c>
       <c r="B39">
-        <v>6.972777777777778</v>
+        <v>17.736111111111111</v>
       </c>
       <c r="C39">
-        <v>2.8927777777777779</v>
+        <v>2.6905555555555556</v>
       </c>
       <c r="D39">
-        <v>6.7397222222222224</v>
+        <v>12.201388888888889</v>
       </c>
       <c r="E39">
-        <v>2.8305555555555557</v>
+        <v>18.302499999999998</v>
       </c>
       <c r="F39">
-        <v>11.3</v>
+        <v>3.42</v>
       </c>
       <c r="H39">
-        <v>5406</v>
+        <v>5423</v>
       </c>
       <c r="I39">
-        <v>6169</v>
+        <v>6177</v>
       </c>
       <c r="J39">
-        <v>6892</v>
+        <v>6939</v>
       </c>
       <c r="L39">
         <v>10.5</v>
@@ -2001,31 +2001,31 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>6.8216666666666663</v>
+        <v>3.0027777777777778</v>
       </c>
       <c r="B40">
-        <v>23.449722222222221</v>
+        <v>5.9625000000000004</v>
       </c>
       <c r="C40">
-        <v>2.7605555555555554</v>
+        <v>2.6266666666666665</v>
       </c>
       <c r="D40">
-        <v>4.5319444444444441</v>
+        <v>11.9175</v>
       </c>
       <c r="E40">
-        <v>14.0375</v>
+        <v>2.1466666666666665</v>
       </c>
       <c r="F40">
-        <v>14.3</v>
+        <v>7.23</v>
       </c>
       <c r="H40">
-        <v>5416</v>
+        <v>5427</v>
       </c>
       <c r="I40">
-        <v>6170</v>
+        <v>6186</v>
       </c>
       <c r="J40">
-        <v>6901</v>
+        <v>6940</v>
       </c>
       <c r="L40">
         <v>11.2</v>
@@ -2041,31 +2041,31 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>4.371666666666667</v>
+        <v>2.4802777777777778</v>
       </c>
       <c r="B41">
-        <v>17.736111111111111</v>
+        <v>14.346111111111112</v>
       </c>
       <c r="C41">
-        <v>2.6436111111111109</v>
+        <v>8.357222222222223</v>
       </c>
       <c r="D41">
-        <v>8.1630555555555553</v>
+        <v>13.088611111111112</v>
       </c>
       <c r="E41">
-        <v>3.4802777777777778</v>
+        <v>11.920555555555556</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="H41">
-        <v>5423</v>
+        <v>5442</v>
       </c>
       <c r="I41">
-        <v>6171</v>
+        <v>6189</v>
       </c>
       <c r="J41">
-        <v>6929</v>
+        <v>6953</v>
       </c>
       <c r="L41">
         <v>11.5</v>
@@ -2081,31 +2081,31 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>3.0027777777777778</v>
+        <v>5.7424999999999997</v>
       </c>
       <c r="B42">
-        <v>5.9625000000000004</v>
+        <v>13.917777777777777</v>
       </c>
       <c r="C42">
-        <v>10.693888888888889</v>
+        <v>8.7969444444444438</v>
       </c>
       <c r="D42">
-        <v>12.390277777777778</v>
+        <v>12.367777777777778</v>
       </c>
       <c r="E42">
-        <v>8.3533333333333335</v>
+        <v>2.2233333333333332</v>
       </c>
       <c r="F42">
-        <v>12.5</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="H42">
-        <v>5427</v>
+        <v>5443</v>
       </c>
       <c r="I42">
-        <v>6174</v>
+        <v>6191</v>
       </c>
       <c r="J42">
-        <v>6931</v>
+        <v>6961</v>
       </c>
       <c r="L42" s="2">
         <v>12.1</v>
@@ -2121,31 +2121,31 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>11.790277777777778</v>
+        <v>3.1919444444444443</v>
       </c>
       <c r="B43">
-        <v>16.001666666666665</v>
+        <v>12.096111111111112</v>
       </c>
       <c r="C43">
-        <v>2.2450000000000001</v>
+        <v>2.6144444444444446</v>
       </c>
       <c r="D43">
-        <v>11.660833333333333</v>
+        <v>5.2930555555555552</v>
       </c>
       <c r="E43">
-        <v>18.302499999999998</v>
+        <v>14.640833333333333</v>
       </c>
       <c r="F43">
-        <v>3.42</v>
+        <v>13.1</v>
       </c>
       <c r="H43">
-        <v>5439</v>
+        <v>5451</v>
       </c>
       <c r="I43">
-        <v>6175</v>
+        <v>6193</v>
       </c>
       <c r="J43">
-        <v>6939</v>
+        <v>7017</v>
       </c>
       <c r="L43">
         <v>13</v>
@@ -2160,32 +2160,23 @@
       <c r="R43" s="6"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>2.4802777777777778</v>
-      </c>
-      <c r="B44">
-        <v>14.346111111111112</v>
-      </c>
       <c r="C44">
-        <v>2.6905555555555556</v>
+        <v>2.3460000000000001</v>
       </c>
       <c r="D44">
-        <v>12.201388888888889</v>
+        <v>12.1</v>
       </c>
       <c r="E44">
-        <v>2.1466666666666665</v>
+        <v>3.3908333333333331</v>
       </c>
       <c r="F44">
-        <v>7.23</v>
-      </c>
-      <c r="H44">
-        <v>5442</v>
+        <v>13.9</v>
       </c>
       <c r="I44">
-        <v>6177</v>
+        <v>6240</v>
       </c>
       <c r="J44">
-        <v>6940</v>
+        <v>7018</v>
       </c>
       <c r="L44">
         <v>13.3</v>
@@ -2200,32 +2191,23 @@
       <c r="R44" s="6"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>5.7424999999999997</v>
-      </c>
-      <c r="B45">
-        <v>13.917777777777777</v>
-      </c>
       <c r="C45">
-        <v>2.6266666666666665</v>
+        <v>2.4980000000000002</v>
       </c>
       <c r="D45">
-        <v>11.9175</v>
+        <v>12.9</v>
       </c>
       <c r="E45">
-        <v>11.920555555555556</v>
+        <v>7.0038888888888886</v>
       </c>
       <c r="F45">
-        <v>13.5</v>
-      </c>
-      <c r="H45">
-        <v>5443</v>
+        <v>11.5</v>
       </c>
       <c r="I45">
-        <v>6186</v>
+        <v>6241</v>
       </c>
       <c r="J45">
-        <v>6953</v>
+        <v>7024</v>
       </c>
       <c r="L45">
         <v>13.4</v>
@@ -2240,32 +2222,23 @@
       <c r="R45" s="6"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>3.1919444444444443</v>
-      </c>
-      <c r="B46">
-        <v>12.096111111111112</v>
-      </c>
       <c r="C46">
-        <v>8.357222222222223</v>
+        <v>4.3979999999999997</v>
       </c>
       <c r="D46">
-        <v>13.088611111111112</v>
+        <v>13</v>
       </c>
       <c r="E46">
-        <v>2.2233333333333332</v>
+        <v>4.3277777777777775</v>
       </c>
       <c r="F46">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="H46">
-        <v>5451</v>
+        <v>2.63</v>
       </c>
       <c r="I46">
-        <v>6189</v>
+        <v>6243</v>
       </c>
       <c r="J46">
-        <v>6961</v>
+        <v>7026</v>
       </c>
       <c r="L46" s="2">
         <v>13.9</v>
@@ -2281,22 +2254,22 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C47">
-        <v>8.7969444444444438</v>
+        <v>4.6769999999999996</v>
       </c>
       <c r="D47">
-        <v>12.367777777777778</v>
+        <v>12.3</v>
       </c>
       <c r="E47">
-        <v>14.640833333333333</v>
+        <v>7.9255555555555555</v>
       </c>
       <c r="F47">
-        <v>13.1</v>
+        <v>13.9</v>
       </c>
       <c r="I47">
-        <v>6191</v>
+        <v>6245</v>
       </c>
       <c r="J47">
-        <v>7017</v>
+        <v>7031</v>
       </c>
       <c r="L47">
         <v>14.3</v>
@@ -2312,22 +2285,22 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C48">
-        <v>2.6144444444444446</v>
+        <v>6.5170000000000003</v>
       </c>
       <c r="D48">
-        <v>5.2930555555555552</v>
+        <v>12.8</v>
       </c>
       <c r="E48">
-        <v>3.3908333333333331</v>
+        <v>2.9158333333333335</v>
       </c>
       <c r="F48">
-        <v>13.9</v>
+        <v>3.74</v>
       </c>
       <c r="I48">
-        <v>6193</v>
+        <v>6252</v>
       </c>
       <c r="J48">
-        <v>7018</v>
+        <v>7036</v>
       </c>
       <c r="L48" s="2">
         <v>14.3</v>
@@ -2343,22 +2316,22 @@
     </row>
     <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49">
-        <v>2.3460000000000001</v>
+        <v>3.0990000000000002</v>
       </c>
       <c r="D49">
-        <v>12.1</v>
+        <v>13.7</v>
       </c>
       <c r="E49">
-        <v>7.0038888888888886</v>
+        <v>11.978055555555555</v>
       </c>
       <c r="F49">
-        <v>11.5</v>
+        <v>12.3</v>
       </c>
       <c r="I49">
-        <v>6240</v>
+        <v>6253</v>
       </c>
       <c r="J49">
-        <v>7024</v>
+        <v>7039</v>
       </c>
       <c r="L49">
         <v>14.8</v>
@@ -2374,22 +2347,22 @@
     </row>
     <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50">
-        <v>2.4980000000000002</v>
+        <v>3.262</v>
       </c>
       <c r="D50">
-        <v>12.9</v>
+        <v>16.8</v>
       </c>
       <c r="E50">
-        <v>4.3277777777777775</v>
+        <v>10.254166666666666</v>
       </c>
       <c r="F50">
-        <v>2.63</v>
+        <v>13.1</v>
       </c>
       <c r="I50">
-        <v>6241</v>
+        <v>6255</v>
       </c>
       <c r="J50">
-        <v>7026</v>
+        <v>7042</v>
       </c>
       <c r="L50">
         <v>14.9</v>
@@ -2405,22 +2378,22 @@
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51">
-        <v>4.3979999999999997</v>
+        <v>3.0310000000000001</v>
       </c>
       <c r="D51">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>7.9255555555555555</v>
+        <v>2.6355555555555554</v>
       </c>
       <c r="F51">
-        <v>13.9</v>
+        <v>26.6</v>
       </c>
       <c r="I51">
-        <v>6243</v>
+        <v>6259</v>
       </c>
       <c r="J51">
-        <v>7031</v>
+        <v>7056</v>
       </c>
       <c r="L51">
         <v>15</v>
@@ -2436,22 +2409,22 @@
     </row>
     <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52">
-        <v>4.6769999999999996</v>
+        <v>6.2140000000000004</v>
       </c>
       <c r="D52">
-        <v>12.3</v>
+        <v>10.3</v>
       </c>
       <c r="E52">
-        <v>4.346111111111111</v>
+        <v>2.713888888888889</v>
       </c>
       <c r="F52">
-        <v>9.83</v>
+        <v>14.2</v>
       </c>
       <c r="I52">
-        <v>6245</v>
+        <v>6268</v>
       </c>
       <c r="J52">
-        <v>7033</v>
+        <v>7061</v>
       </c>
       <c r="L52">
         <v>15.6</v>
@@ -2467,22 +2440,22 @@
     </row>
     <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53">
-        <v>6.5170000000000003</v>
+        <v>4.633</v>
       </c>
       <c r="D53">
-        <v>12.8</v>
+        <v>11.9</v>
       </c>
       <c r="E53">
-        <v>2.9158333333333335</v>
+        <v>6.5211111111111109</v>
       </c>
       <c r="F53">
-        <v>3.74</v>
+        <v>13</v>
       </c>
       <c r="I53">
-        <v>6252</v>
+        <v>6271</v>
       </c>
       <c r="J53">
-        <v>7036</v>
+        <v>7065</v>
       </c>
       <c r="L53" s="2">
         <v>16</v>
@@ -2498,22 +2471,22 @@
     </row>
     <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54">
-        <v>3.0990000000000002</v>
+        <v>3.5390000000000001</v>
       </c>
       <c r="D54">
-        <v>13.7</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>11.978055555555555</v>
+        <v>4.8594444444444447</v>
       </c>
       <c r="F54">
-        <v>12.3</v>
+        <v>13.2</v>
       </c>
       <c r="I54">
-        <v>6253</v>
+        <v>6272</v>
       </c>
       <c r="J54">
-        <v>7039</v>
+        <v>7069</v>
       </c>
       <c r="L54">
         <v>16.2</v>
@@ -2529,22 +2502,22 @@
     </row>
     <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55">
-        <v>3.262</v>
+        <v>6.0839999999999996</v>
       </c>
       <c r="D55">
-        <v>16.8</v>
+        <v>12.9</v>
       </c>
       <c r="E55">
-        <v>10.254166666666666</v>
+        <v>10.859444444444444</v>
       </c>
       <c r="F55">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="I55">
-        <v>6255</v>
+        <v>6275</v>
       </c>
       <c r="J55">
-        <v>7042</v>
+        <v>7087</v>
       </c>
       <c r="L55">
         <v>16.5</v>
@@ -2560,22 +2533,22 @@
     </row>
     <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56">
-        <v>7.4409999999999998</v>
+        <v>14.702999999999999</v>
       </c>
       <c r="D56">
-        <v>0.25700000000000001</v>
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>2.6355555555555554</v>
+        <v>4.4891666666666667</v>
       </c>
       <c r="F56">
-        <v>26.6</v>
+        <v>12.6</v>
       </c>
       <c r="I56">
-        <v>6258</v>
+        <v>6283</v>
       </c>
       <c r="J56">
-        <v>7056</v>
+        <v>7090</v>
       </c>
       <c r="L56">
         <v>16.5</v>
@@ -2591,22 +2564,22 @@
     </row>
     <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57">
-        <v>3.0310000000000001</v>
+        <v>2.8580000000000001</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>12.1</v>
       </c>
       <c r="E57">
-        <v>2.713888888888889</v>
+        <v>2.2894444444444444</v>
       </c>
       <c r="F57">
-        <v>14.2</v>
+        <v>13.1</v>
       </c>
       <c r="I57">
-        <v>6259</v>
+        <v>6288</v>
       </c>
       <c r="J57">
-        <v>7061</v>
+        <v>7091</v>
       </c>
       <c r="L57">
         <v>16.600000000000001</v>
@@ -2622,22 +2595,22 @@
     </row>
     <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58">
-        <v>6.2140000000000004</v>
+        <v>6.82</v>
       </c>
       <c r="D58">
-        <v>10.3</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <v>6.5211111111111109</v>
+        <v>6.5041666666666664</v>
       </c>
       <c r="F58">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="I58">
-        <v>6268</v>
+        <v>6291</v>
       </c>
       <c r="J58">
-        <v>7065</v>
+        <v>7097</v>
       </c>
       <c r="L58">
         <v>16.8</v>
@@ -2653,22 +2626,22 @@
     </row>
     <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59">
-        <v>4.633</v>
+        <v>2.29</v>
       </c>
       <c r="D59">
-        <v>11.9</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E59">
-        <v>4.8594444444444447</v>
+        <v>9.6127777777777776</v>
       </c>
       <c r="F59">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="I59">
-        <v>6271</v>
+        <v>6298</v>
       </c>
       <c r="J59">
-        <v>7069</v>
+        <v>7105</v>
       </c>
       <c r="L59">
         <v>16.899999999999999</v>
@@ -2684,22 +2657,22 @@
     </row>
     <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60">
-        <v>3.5390000000000001</v>
+        <v>7.1639999999999997</v>
       </c>
       <c r="D60">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="E60">
-        <v>10.859444444444444</v>
+        <v>4.6524999999999999</v>
       </c>
       <c r="F60">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="I60">
-        <v>6272</v>
+        <v>6303</v>
       </c>
       <c r="J60">
-        <v>7087</v>
+        <v>7108</v>
       </c>
       <c r="L60" s="2">
         <v>17.100000000000001</v>
@@ -2715,22 +2688,22 @@
     </row>
     <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61">
-        <v>6.0839999999999996</v>
+        <v>4.7359999999999998</v>
       </c>
       <c r="D61">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="E61">
-        <v>4.4891666666666667</v>
+        <v>1.9836111111111112</v>
       </c>
       <c r="F61">
-        <v>12.6</v>
+        <v>11.5</v>
       </c>
       <c r="I61">
-        <v>6275</v>
+        <v>6304</v>
       </c>
       <c r="J61">
-        <v>7090</v>
+        <v>7110</v>
       </c>
       <c r="L61" s="2">
         <v>17.7</v>
@@ -2746,22 +2719,22 @@
     </row>
     <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62">
-        <v>14.702999999999999</v>
+        <v>2.6419999999999999</v>
       </c>
       <c r="D62">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62">
-        <v>2.2894444444444444</v>
+        <v>4.3083333333333336</v>
       </c>
       <c r="F62">
-        <v>13.1</v>
+        <v>6.73</v>
       </c>
       <c r="I62">
-        <v>6283</v>
+        <v>6305</v>
       </c>
       <c r="J62">
-        <v>7091</v>
+        <v>7118</v>
       </c>
       <c r="L62">
         <v>18.399999999999999</v>
@@ -2777,22 +2750,22 @@
     </row>
     <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63">
-        <v>2.2130000000000001</v>
+        <v>4.08</v>
       </c>
       <c r="D63">
-        <v>7.88</v>
+        <v>12.9</v>
       </c>
       <c r="E63">
-        <v>6.5041666666666664</v>
+        <v>3.5402777777777779</v>
       </c>
       <c r="F63">
-        <v>13.6</v>
+        <v>5.38</v>
       </c>
       <c r="I63">
-        <v>6285</v>
+        <v>6311</v>
       </c>
       <c r="J63">
-        <v>7097</v>
+        <v>7120</v>
       </c>
       <c r="L63">
         <v>18.5</v>
@@ -2808,22 +2781,22 @@
     </row>
     <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64">
-        <v>11.287000000000001</v>
+        <v>2.7890000000000001</v>
       </c>
       <c r="D64">
-        <v>13.4</v>
+        <v>11.4</v>
       </c>
       <c r="E64">
-        <v>9.6127777777777776</v>
+        <v>3.6324999999999998</v>
       </c>
       <c r="F64">
-        <v>13.5</v>
+        <v>11.3</v>
       </c>
       <c r="I64">
-        <v>6287</v>
+        <v>6312</v>
       </c>
       <c r="J64">
-        <v>7105</v>
+        <v>7123</v>
       </c>
       <c r="L64">
         <v>18.8</v>
@@ -2839,22 +2812,22 @@
     </row>
     <row r="65" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C65">
-        <v>2.8580000000000001</v>
+        <v>2.395</v>
       </c>
       <c r="D65">
-        <v>12.1</v>
+        <v>14.4</v>
       </c>
       <c r="E65">
-        <v>4.6524999999999999</v>
+        <v>1.9355555555555555</v>
       </c>
       <c r="F65">
         <v>12.4</v>
       </c>
       <c r="I65">
-        <v>6288</v>
+        <v>6314</v>
       </c>
       <c r="J65">
-        <v>7108</v>
+        <v>7124</v>
       </c>
       <c r="L65">
         <v>20.9</v>
@@ -2870,22 +2843,22 @@
     </row>
     <row r="66" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C66">
-        <v>6.82</v>
+        <v>7.2519999999999998</v>
       </c>
       <c r="D66">
-        <v>19</v>
+        <v>13.1</v>
       </c>
       <c r="E66">
-        <v>1.9836111111111112</v>
+        <v>5.4327777777777779</v>
       </c>
       <c r="F66">
-        <v>11.5</v>
+        <v>12.2</v>
       </c>
       <c r="I66">
-        <v>6291</v>
+        <v>6317</v>
       </c>
       <c r="J66">
-        <v>7110</v>
+        <v>7127</v>
       </c>
       <c r="L66">
         <v>21.4</v>
@@ -2901,22 +2874,22 @@
     </row>
     <row r="67" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C67">
-        <v>2.29</v>
+        <v>5.569</v>
       </c>
       <c r="D67">
-        <v>17.100000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="E67">
-        <v>4.3083333333333336</v>
+        <v>3.6655555555555557</v>
       </c>
       <c r="F67">
-        <v>6.73</v>
+        <v>12.5</v>
       </c>
       <c r="I67">
-        <v>6298</v>
+        <v>6324</v>
       </c>
       <c r="J67">
-        <v>7118</v>
+        <v>7139</v>
       </c>
       <c r="L67">
         <v>21.5</v>
@@ -2932,22 +2905,22 @@
     </row>
     <row r="68" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C68">
-        <v>7.1639999999999997</v>
+        <v>3.51</v>
       </c>
       <c r="D68">
-        <v>13.5</v>
+        <v>15.2</v>
       </c>
       <c r="E68">
-        <v>3.5402777777777779</v>
+        <v>2.2850000000000001</v>
       </c>
       <c r="F68">
-        <v>5.38</v>
+        <v>8.98</v>
       </c>
       <c r="I68">
-        <v>6303</v>
+        <v>6325</v>
       </c>
       <c r="J68">
-        <v>7120</v>
+        <v>7145</v>
       </c>
       <c r="L68">
         <v>21.7</v>
@@ -2963,22 +2936,22 @@
     </row>
     <row r="69" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C69">
-        <v>4.7359999999999998</v>
+        <v>9.7449999999999992</v>
       </c>
       <c r="D69">
-        <v>12.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E69">
-        <v>3.6324999999999998</v>
+        <v>7.29</v>
       </c>
       <c r="F69">
-        <v>11.3</v>
+        <v>8.7747222222222216</v>
       </c>
       <c r="I69">
-        <v>6304</v>
+        <v>6346</v>
       </c>
       <c r="J69">
-        <v>7123</v>
+        <v>7217</v>
       </c>
       <c r="L69" s="2">
         <v>22.1</v>
@@ -2994,22 +2967,22 @@
     </row>
     <row r="70" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C70">
-        <v>2.6419999999999999</v>
+        <v>3.262</v>
       </c>
       <c r="D70">
-        <v>13</v>
+        <v>12.1</v>
       </c>
       <c r="E70">
-        <v>1.9355555555555555</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F70">
-        <v>12.4</v>
+        <v>10.723611111111111</v>
       </c>
       <c r="I70">
-        <v>6305</v>
+        <v>6356</v>
       </c>
       <c r="J70">
-        <v>7124</v>
+        <v>7218</v>
       </c>
       <c r="L70" s="2">
         <v>22.4</v>
@@ -3025,22 +2998,22 @@
     </row>
     <row r="71" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C71">
-        <v>4.8259999999999996</v>
+        <v>6.81</v>
       </c>
       <c r="D71">
-        <v>12.8</v>
+        <v>24.2</v>
       </c>
       <c r="E71">
-        <v>5.4327777777777779</v>
+        <v>4.95</v>
       </c>
       <c r="F71">
-        <v>12.2</v>
+        <v>8.7575000000000003</v>
       </c>
       <c r="I71">
-        <v>6308</v>
+        <v>6360</v>
       </c>
       <c r="J71">
-        <v>7127</v>
+        <v>7256</v>
       </c>
       <c r="L71">
         <v>22.4</v>
@@ -3056,22 +3029,22 @@
     </row>
     <row r="72" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C72">
-        <v>4.08</v>
+        <v>4.1520000000000001</v>
       </c>
       <c r="D72">
-        <v>12.9</v>
+        <v>23.9</v>
       </c>
       <c r="E72">
-        <v>3.0024999999999999</v>
+        <v>11.78</v>
       </c>
       <c r="F72">
-        <v>3.55</v>
+        <v>9.9275000000000002</v>
       </c>
       <c r="I72">
-        <v>6311</v>
+        <v>6362</v>
       </c>
       <c r="J72">
-        <v>7135</v>
+        <v>7259</v>
       </c>
       <c r="L72">
         <v>22.9</v>
@@ -3087,22 +3060,22 @@
     </row>
     <row r="73" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C73">
-        <v>2.7890000000000001</v>
+        <v>9.048</v>
       </c>
       <c r="D73">
-        <v>11.4</v>
+        <v>27.4</v>
       </c>
       <c r="E73">
-        <v>3.6655555555555557</v>
+        <v>10.81</v>
       </c>
       <c r="F73">
-        <v>12.5</v>
+        <v>14.974722222222223</v>
       </c>
       <c r="I73">
-        <v>6312</v>
+        <v>6364</v>
       </c>
       <c r="J73">
-        <v>7139</v>
+        <v>7270</v>
       </c>
       <c r="L73">
         <v>23.2</v>
@@ -3118,22 +3091,22 @@
     </row>
     <row r="74" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C74">
-        <v>2.395</v>
+        <v>3.3290000000000002</v>
       </c>
       <c r="D74">
-        <v>14.4</v>
+        <v>23.9</v>
       </c>
       <c r="E74">
-        <v>2.2850000000000001</v>
+        <v>2.21</v>
       </c>
       <c r="F74">
-        <v>8.98</v>
+        <v>3.7797222222222224</v>
       </c>
       <c r="I74">
-        <v>6314</v>
+        <v>6371</v>
       </c>
       <c r="J74">
-        <v>7145</v>
+        <v>7271</v>
       </c>
       <c r="L74" s="2">
         <v>23.4</v>
@@ -3148,23 +3121,14 @@
       <c r="R74" s="6"/>
     </row>
     <row r="75" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C75">
-        <v>7.2519999999999998</v>
-      </c>
-      <c r="D75">
-        <v>13.1</v>
-      </c>
       <c r="E75">
-        <v>7.29</v>
+        <v>2.11</v>
       </c>
       <c r="F75">
-        <v>8.7747222222222216</v>
-      </c>
-      <c r="I75">
-        <v>6317</v>
+        <v>14.982222222222223</v>
       </c>
       <c r="J75">
-        <v>7217</v>
+        <v>7309</v>
       </c>
       <c r="L75">
         <v>23.8</v>
@@ -3179,23 +3143,14 @@
       <c r="R75" s="6"/>
     </row>
     <row r="76" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C76">
-        <v>5.569</v>
-      </c>
-      <c r="D76">
-        <v>16.2</v>
-      </c>
       <c r="E76">
-        <v>4.9000000000000004</v>
+        <v>2.35</v>
       </c>
       <c r="F76">
-        <v>10.723611111111111</v>
-      </c>
-      <c r="I76">
-        <v>6324</v>
+        <v>11.745833333333334</v>
       </c>
       <c r="J76">
-        <v>7218</v>
+        <v>7310</v>
       </c>
       <c r="L76">
         <v>24.2</v>
@@ -3210,23 +3165,14 @@
       <c r="R76" s="6"/>
     </row>
     <row r="77" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C77">
-        <v>3.51</v>
-      </c>
-      <c r="D77">
-        <v>15.2</v>
-      </c>
       <c r="E77">
-        <v>9.56</v>
+        <v>4.49</v>
       </c>
       <c r="F77">
-        <v>5.4366666666666665</v>
-      </c>
-      <c r="I77">
-        <v>6325</v>
+        <v>15.004722222222222</v>
       </c>
       <c r="J77">
-        <v>7245</v>
+        <v>7314</v>
       </c>
       <c r="L77">
         <v>25.3</v>
@@ -3241,23 +3187,14 @@
       <c r="R77" s="6"/>
     </row>
     <row r="78" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C78">
-        <v>4.165</v>
-      </c>
-      <c r="D78">
-        <v>5.57</v>
-      </c>
       <c r="E78">
-        <v>4.95</v>
+        <v>2.61</v>
       </c>
       <c r="F78">
-        <v>8.7575000000000003</v>
-      </c>
-      <c r="I78">
-        <v>6337</v>
+        <v>11.330277777777777</v>
       </c>
       <c r="J78">
-        <v>7256</v>
+        <v>7315</v>
       </c>
       <c r="L78" s="2">
         <v>25.5</v>
@@ -3272,23 +3209,14 @@
       <c r="R78" s="6"/>
     </row>
     <row r="79" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C79">
-        <v>9.7449999999999992</v>
-      </c>
-      <c r="D79">
-        <v>17.399999999999999</v>
-      </c>
       <c r="E79">
-        <v>11.78</v>
+        <v>7.2</v>
       </c>
       <c r="F79">
-        <v>9.9275000000000002</v>
-      </c>
-      <c r="I79">
-        <v>6346</v>
+        <v>15.141944444444444</v>
       </c>
       <c r="J79">
-        <v>7259</v>
+        <v>7320</v>
       </c>
       <c r="L79">
         <v>25.6</v>
@@ -3303,23 +3231,14 @@
       <c r="R79" s="6"/>
     </row>
     <row r="80" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C80">
-        <v>3.262</v>
-      </c>
-      <c r="D80">
-        <v>12.1</v>
-      </c>
       <c r="E80">
-        <v>10.81</v>
+        <v>2.29</v>
       </c>
       <c r="F80">
-        <v>14.974722222222223</v>
-      </c>
-      <c r="I80">
-        <v>6356</v>
+        <v>14.969166666666666</v>
       </c>
       <c r="J80">
-        <v>7270</v>
+        <v>7321</v>
       </c>
       <c r="L80">
         <v>25.6</v>
@@ -3333,24 +3252,15 @@
       <c r="Q80" s="5"/>
       <c r="R80" s="6"/>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C81">
-        <v>6.81</v>
-      </c>
-      <c r="D81">
-        <v>24.2</v>
-      </c>
+    <row r="81" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E81">
-        <v>2.21</v>
+        <v>5.29</v>
       </c>
       <c r="F81">
-        <v>3.7797222222222224</v>
-      </c>
-      <c r="I81">
-        <v>6360</v>
+        <v>9.8744444444444444</v>
       </c>
       <c r="J81">
-        <v>7271</v>
+        <v>7324</v>
       </c>
       <c r="L81">
         <v>26.7</v>
@@ -3364,24 +3274,15 @@
       <c r="Q81" s="5"/>
       <c r="R81" s="6"/>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C82">
-        <v>4.1520000000000001</v>
-      </c>
-      <c r="D82">
-        <v>23.9</v>
-      </c>
+    <row r="82" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E82">
-        <v>2.11</v>
+        <v>6.78</v>
       </c>
       <c r="F82">
-        <v>14.982222222222223</v>
-      </c>
-      <c r="I82">
-        <v>6362</v>
+        <v>10.102222222222222</v>
       </c>
       <c r="J82">
-        <v>7309</v>
+        <v>7328</v>
       </c>
       <c r="L82">
         <v>27.3</v>
@@ -3395,24 +3296,15 @@
       <c r="Q82" s="5"/>
       <c r="R82" s="6"/>
     </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C83">
-        <v>9.048</v>
-      </c>
-      <c r="D83">
-        <v>27.4</v>
-      </c>
+    <row r="83" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E83">
-        <v>2.35</v>
+        <v>4.93</v>
       </c>
       <c r="F83">
-        <v>11.745833333333334</v>
-      </c>
-      <c r="I83">
-        <v>6364</v>
+        <v>13.964722222222223</v>
       </c>
       <c r="J83">
-        <v>7310</v>
+        <v>7333</v>
       </c>
       <c r="L83">
         <v>27.4</v>
@@ -3426,24 +3318,15 @@
       <c r="Q83" s="5"/>
       <c r="R83" s="6"/>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C84">
-        <v>3.3290000000000002</v>
-      </c>
-      <c r="D84">
-        <v>23.9</v>
-      </c>
+    <row r="84" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E84">
-        <v>4.49</v>
+        <v>3.35</v>
       </c>
       <c r="F84">
-        <v>15.004722222222222</v>
-      </c>
-      <c r="I84">
-        <v>6371</v>
+        <v>13.423611111111111</v>
       </c>
       <c r="J84">
-        <v>7314</v>
+        <v>7334</v>
       </c>
       <c r="L84" s="2">
         <v>29.2</v>
@@ -3457,16 +3340,7 @@
       <c r="Q84" s="5"/>
       <c r="R84" s="6"/>
     </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E85">
-        <v>2.61</v>
-      </c>
-      <c r="F85">
-        <v>11.330277777777777</v>
-      </c>
-      <c r="J85">
-        <v>7315</v>
-      </c>
+    <row r="85" spans="5:18" x14ac:dyDescent="0.2">
       <c r="L85">
         <v>37</v>
       </c>
@@ -3479,16 +3353,7 @@
       <c r="Q85" s="5"/>
       <c r="R85" s="6"/>
     </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E86">
-        <v>7.2</v>
-      </c>
-      <c r="F86">
-        <v>15.141944444444444</v>
-      </c>
-      <c r="J86">
-        <v>7320</v>
-      </c>
+    <row r="86" spans="5:18" x14ac:dyDescent="0.2">
       <c r="M86">
         <v>14.1</v>
       </c>
@@ -3498,16 +3363,7 @@
       <c r="Q86" s="5"/>
       <c r="R86" s="6"/>
     </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E87">
-        <v>2.29</v>
-      </c>
-      <c r="F87">
-        <v>14.969166666666666</v>
-      </c>
-      <c r="J87">
-        <v>7321</v>
-      </c>
+    <row r="87" spans="5:18" x14ac:dyDescent="0.2">
       <c r="L87" s="2"/>
       <c r="M87">
         <v>14.2</v>
@@ -3518,16 +3374,7 @@
       <c r="Q87" s="5"/>
       <c r="R87" s="6"/>
     </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E88">
-        <v>5.29</v>
-      </c>
-      <c r="F88">
-        <v>9.8744444444444444</v>
-      </c>
-      <c r="J88">
-        <v>7324</v>
-      </c>
+    <row r="88" spans="5:18" x14ac:dyDescent="0.2">
       <c r="M88" s="2">
         <v>14.3</v>
       </c>
@@ -3537,16 +3384,7 @@
       <c r="Q88" s="5"/>
       <c r="R88" s="6"/>
     </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E89">
-        <v>6.78</v>
-      </c>
-      <c r="F89">
-        <v>10.102222222222222</v>
-      </c>
-      <c r="J89">
-        <v>7328</v>
-      </c>
+    <row r="89" spans="5:18" x14ac:dyDescent="0.2">
       <c r="M89" s="2">
         <v>14.4</v>
       </c>
@@ -3556,16 +3394,7 @@
       <c r="Q89" s="5"/>
       <c r="R89" s="6"/>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E90">
-        <v>4.93</v>
-      </c>
-      <c r="F90">
-        <v>13.964722222222223</v>
-      </c>
-      <c r="J90">
-        <v>7333</v>
-      </c>
+    <row r="90" spans="5:18" x14ac:dyDescent="0.2">
       <c r="M90" s="2">
         <v>14.4</v>
       </c>
@@ -3575,16 +3404,7 @@
       <c r="Q90" s="5"/>
       <c r="R90" s="6"/>
     </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E91">
-        <v>3.35</v>
-      </c>
-      <c r="F91">
-        <v>13.423611111111111</v>
-      </c>
-      <c r="J91">
-        <v>7334</v>
-      </c>
+    <row r="91" spans="5:18" x14ac:dyDescent="0.2">
       <c r="M91" s="2">
         <v>14.6</v>
       </c>
@@ -3594,7 +3414,7 @@
       <c r="Q91" s="5"/>
       <c r="R91" s="6"/>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:18" x14ac:dyDescent="0.2">
       <c r="M92">
         <v>15</v>
       </c>
@@ -3604,7 +3424,7 @@
       <c r="Q92" s="5"/>
       <c r="R92" s="6"/>
     </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:18" x14ac:dyDescent="0.2">
       <c r="M93">
         <v>15.2</v>
       </c>
@@ -3614,7 +3434,7 @@
       <c r="Q93" s="5"/>
       <c r="R93" s="6"/>
     </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:18" x14ac:dyDescent="0.2">
       <c r="M94" s="2">
         <v>15.6</v>
       </c>
@@ -3624,7 +3444,7 @@
       <c r="Q94" s="5"/>
       <c r="R94" s="6"/>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:18" x14ac:dyDescent="0.2">
       <c r="L95" s="2"/>
       <c r="M95" s="2">
         <v>16.100000000000001</v>
@@ -3635,7 +3455,7 @@
       <c r="Q95" s="5"/>
       <c r="R95" s="6"/>
     </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:18" x14ac:dyDescent="0.2">
       <c r="L96" s="2"/>
       <c r="M96" s="2">
         <v>16.100000000000001</v>
